--- a/data/hotels_by_city/Dallas/Dallas_shard_140.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_140.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1005">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Lori S</t>
+  </si>
+  <si>
     <t>06/07/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>mannichamp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r574510041-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>Stayed at the Courtyard at Richardson for 19 days during a business trip to Dallas. The rooms are spacious and well stocked with coffee maker, microwave, iron box and a mini refrigerator. The breakfast has limited but good options. The DART station is a 5 mins walk away and so really convenient if you dont have your own car. Plenty of restaurants in the vicinity...with Waffle House and Wendy's across the street. The bathrooms are sparcely stocked though with no complimentory toiletories..which was a little surprising. Special mention for the excellent staff .. Angela and Steve at the Front Desk and Michelle at the Bistro. I enjoyed my stay here and will come back....More</t>
   </si>
   <si>
+    <t>BlueMarlinDave</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r565592492-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t>At first glance this appears to be an outdated Courtyard but the lobby area has been redone and the rooms are clean and typical of Courtyard. This hotel is conveniently located for doing business in Dallas and the prices are very reasonable. There are several nice restaurants nearby and of course the staff in the Bistro were very good. My hats off to Silvia for making our stay enjoyable! More</t>
   </si>
   <si>
+    <t>diamondprod_tom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r562819148-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Micmacmocha</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r549591861-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -264,6 +279,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>Eva P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r498923300-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -282,6 +300,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>Products83</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r498250935-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -303,6 +324,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Cindy W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r498065380-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -327,6 +351,9 @@
     <t>Stayed here for one night.  Courteous staff.  No hot tub and no free breakfast.  There is a bistro you can buy food from.  Getting ready for bed and pulled back comforter.  There was a chocolate/brown stain.  Called front desk and they sent up a new comforter.More</t>
   </si>
   <si>
+    <t>CHRISTIAN N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r455390403-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -354,6 +381,9 @@
     <t>I have been 7 times at this hotel over 10 years. Yes, it has been renewed partially but not in general. The worst thing is the breakfast "kiosk" concept and related overpricing. We have been waiting in the "que" standing in front of the bar up to 15 min. to place the order (what the h*** was driving the hotel management to have such a concept implemented). Rooms have been somehow redecorate but still the same furnitures and the bathrooms are definitely to be replaced. AC seems to be technology from the 70ties. Price benefit is absolutely dis-balanced especially taking fees for breakfast into consideration. You will get definitely nicer rooms in other hotels in the area of +/- 5-10 miles. The worst experience is the pricing for drinks at the bar (a glass of red wine +/- 12-14 USD !!)Service staff was always nice and supportive - however, I will definetely not book rooms at this hotel again.More</t>
   </si>
   <si>
+    <t>Christian L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r453450101-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -381,6 +411,9 @@
     <t>My husband booked myself and our 2 daughters to stay here for a one night stay (Friday to Saturday). He reserved a king room. When we got up to the room there was not a king bed. I talked to the front desk and was told it was a king bed but if I wanted to pay $10 more I could be moved to a room with 2 of the beds I had instead of one. I said but that would be your 2 doubles room. They said yes. So I said, then I am in a double? No you're in a king. At that point I just laughed and gave up. The rooms though clean were a far cry from the photos posted. There is also no microwave in your room. There was a small patio with a sliding glass door that I thought was sorta cute until my 12 year old saw very inappropriate behavior (details not allowed by tripadvisor) on several other patios. Less cute. The bath was absurdly small and there were odd stains here and there and cracks through the ceiling. All in all we slept well enough but will not be returning which is unfortunate as we were hoping to use the same location for our dozen or so trips (along with my daughters team) within the next 3 months.I have several photos but they will not uploadMore</t>
   </si>
   <si>
+    <t>Amanda T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r448720937-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -399,6 +432,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Ginger H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r440403309-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -426,6 +462,9 @@
     <t>Needed a place to stop for the night. Rates were reasonable and was very pleased with the hotel. Great service and excellent bed.  Was upgraded to a suite.  No continental breakfast, but can purchase breakfast if so desired. Would stay here again!!!More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r438471730-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -450,6 +489,9 @@
     <t>My wife and I were in town for a friends wedding and had found this hotel for a reasonable rate online. It's a nice hotel; standard Courtyard Marriott. The staff was friendly and the rooms were clean! I would certainly stay here again in the future.More</t>
   </si>
   <si>
+    <t>Frank012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r425808297-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -468,6 +510,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>barrioonwheels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r423801811-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -492,6 +537,9 @@
     <t>Clean and pleasant but absolutely no amenities.No breakfast.No coffee.No tea water.No coffee machine in room.No refrigerator.Not even a plastic cup next to the sink.No ice.$4.00 coffee available in lobby.Overpriced breakfast from "Bistro",think: microwaved low grade semi-edibles.More</t>
   </si>
   <si>
+    <t>LaceyTaylor83</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r422659431-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -510,6 +558,9 @@
     <t>I debated between 3 and 4 stars for this.  Here are the pros and cons:Pros:- comfy beds, new furnishings and decor, and spacious rooms- lobby and bistro area are updated and modern - mini-mart style pantry in lobby- rates are excellent for this area (around $125 per night, compared to $180 for nearby hilton affilliates)- I like that the bathrooms are in two sections. The toilet and tub are separate from the vanity area, so two can get ready in the morning at the same time - located right off of 75, so easy access to downtown Dallas or up to Plano- 2nd and 3rd floors have balconies off the rooms. - floors and rooms are quiet even though the hotel was pretty full.Cons:- exterior is not that nice, looks more like an old La quinta than a newly built Marriott- floor plan layout is weird - awkward parking and access to entrances near elevators, etc. - breakfast is not included and is pricey (but the Bistro offerings are good!)- no room service I would've given this 3 stars were it not for the low rate. That made the value worth more to me. More</t>
   </si>
   <si>
+    <t>Kristy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r420233031-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -525,6 +576,9 @@
     <t>Thank-you Charlotte!!  After a brief room mishap, she did an amazing job making sure we were settled in AND gave us free breakfast the next morning!  Hotel was clean and comfortable!!  Thanks for a great night!!</t>
   </si>
   <si>
+    <t>juanvega1982</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r415667360-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -549,6 +603,9 @@
     <t>Very spacious room for 4 adults.  Quiet place and very comfortable.  I don't know why the internet was not working properly.  No free breakfast.  There is a restaurant in the hotel but did not try it.  There are good restaurants around the area.More</t>
   </si>
   <si>
+    <t>Ben D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r412952343-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -570,6 +627,9 @@
     <t>Have come back to this hotel for business because it is consistently clean, staff is great and everything is convenient especially the bistro serving Starbucks all day. Also just tried a quick salad and unexpectedly good as well. Cool modern design on top of it all!More</t>
   </si>
   <si>
+    <t>E R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r408164270-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -585,6 +645,9 @@
     <t>We stayed there for four nights , this property has been freshly remodeled so all the paint, the carpet, the furniture. The bedding, pictures...all new except for the outside which has not been updated highly recommended for people staying around They have a courtyard with a poolAll rooms  have their own balconiesDecent workout facilities and they do have large meeting roomsAmple free  parking, but the parking lot needs updating Best of all they have the nicest people working the the graveyard shift , super crew malt at 440 am, WOW.  Thank you and keep it up</t>
   </si>
   <si>
+    <t>luv2campout</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r407580333-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -600,6 +663,9 @@
     <t>I've stayed here a few times and each experience has always been great. The location is easy to find and close to shopping. The staff are super nice and rooms were very clean and comfy. Will be back again.</t>
   </si>
   <si>
+    <t>Danell S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r404197048-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -615,6 +681,9 @@
     <t>We knew we would be in dallas for a couple days- we didn't book a two night stay at this hotel just to see if we would like the room first. After dealing with front desk lady (I believe her name was charolette), we didn't want to stay anywhere else. She was so pleasant and welcoming and did all she could to go over and above. We booked the second night stay not because of the room (it was comfortable but not top class)- but because she made it so welcoming.</t>
   </si>
   <si>
+    <t>hellogoodbye_7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r399633582-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -633,6 +702,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>G-Nella</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r399190696-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -651,6 +723,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>jim m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r395496968-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -675,6 +750,9 @@
     <t>I booked a room for a Friend that Stayed one Night when he was working late so he Would not have to drive across town to get back home. He said he had one of the best nights sleep and stay that he has had in a long time. Room was nice and clean as well as the rest of the Facilities. What I can write with personal Experience is the Morning crew at the Bistro, (Michelle and Sarah) are the most Friendly Gals that is see at least a couple times a week Because I stop to get Coffee and sometimes Breakfast. They are always Cheerful and Friendly (Not just to me But ALL the Guest) and now that I'm kind of a "Regular" My Coffee is usually Ready when I get to the Register. The Turkey spinach and Cheese breakfast Sandwich is Awesome and Healthy Too. Thanks Again Michelle and Sarah, See ya in the Next Few Days.More</t>
   </si>
   <si>
+    <t>jennluvtravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r361086841-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -702,6 +780,9 @@
     <t>It's 3:30 am and my neighbors have been talking and laughing nonstop since close to midnight and I can hear everything including their TV and music.  The walls are super thin, I recorded everything they are saying on the voice memo of my iPhone.  Bring your earplugs because they don't have any at the front desk.But on the bright side, the staff is really nice, the rooms are clean and set-up is nice.  Getting a decent night's sleep though is a different story.More</t>
   </si>
   <si>
+    <t>Tebu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r349178941-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -726,6 +807,9 @@
     <t>Before I begin with my room I first want to point out that you cant get a cup of coffee in the morning in the lobby with out paying for burnt tasting Starbucks.  You will have to use the coffee maker in the room.  Second, the room does not have a microwave.  I dont understand why...maybe to push people to the on property Bistro. Now to the only piece of cushioned furniture in the room....the couch.  To be honest I have seen this couch used in another Courtyard.  Who chooses these things Marriott?  This couch is curved.  The seat is so deep as to prevent you from leaning against the back and still have your feet on the floor.  Woops so now what do you do?  You climb up in it and pull up a stool for your feet I guess.  Im 6" tall by the way.  Now the back of the couch is not near perpendicular to the seat cushion, in fact it angles back near 45 degrees!  (I took pics but tripadvisor doesnt have away to attach that I can find).  Ok, now get the picture...here you are feet off the floor leaning back at a 45 degree angle.  Your nose is pointed at the ceiling and the back is so short you have no support for your head.  Now try to watch TV.  To do so you will have to bend your neck forward 45 degrees to...Before I begin with my room I first want to point out that you cant get a cup of coffee in the morning in the lobby with out paying for burnt tasting Starbucks.  You will have to use the coffee maker in the room.  Second, the room does not have a microwave.  I dont understand why...maybe to push people to the on property Bistro. Now to the only piece of cushioned furniture in the room....the couch.  To be honest I have seen this couch used in another Courtyard.  Who chooses these things Marriott?  This couch is curved.  The seat is so deep as to prevent you from leaning against the back and still have your feet on the floor.  Woops so now what do you do?  You climb up in it and pull up a stool for your feet I guess.  Im 6" tall by the way.  Now the back of the couch is not near perpendicular to the seat cushion, in fact it angles back near 45 degrees!  (I took pics but tripadvisor doesnt have away to attach that I can find).  Ok, now get the picture...here you are feet off the floor leaning back at a 45 degree angle.  Your nose is pointed at the ceiling and the back is so short you have no support for your head.  Now try to watch TV.  To do so you will have to bend your neck forward 45 degrees to compensate.  For most people to do this for any amount of time will cause muscle induced tightness/strain/headache.  They include a pillow that is half the width of the back and runs the full length of the couch.  If you use this pillow as intended it will open that resting angle up to 50 or 60 degrees making it even worse.In addition to this couch I have seen a cushioned chair also.  It has arm rests that are so incredibly high as to prevent a guest from using a table placed next to it.In closing, Marriott needs to use an ergonomist when choosing furniture.  BTW, I used this room for 2 consecutive weeks before I gave up and moved to another actually comfortable Marriott property.  They have fresh coffee in the lobbly too LOL.More</t>
   </si>
   <si>
+    <t>Deborah C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r345816922-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -753,6 +837,9 @@
     <t>My friend and I wanted to stay near Pappadeux and this was perfect. Clean, comfortable, good customer service. We wished it had been warm enough to enjoy the beautiful courtyard and our little balcony. Only caveat was that the beds didn't seem quite as good as the standard Marriott beds. Maybe this hotel is nearing the end of its bed replacement cycle...More</t>
   </si>
   <si>
+    <t>NDakGirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r345694039-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -780,6 +867,9 @@
     <t>We were in Richardson for a memorial service and family gathered at this motel.   I picked the motel and was a little nervous because it wasn't a very expensive place.    When we arrived at the front desk they were very gracious and welcomed us a Gold Members with a very nice upgrade.    We thought it was such a nice facility with places for us to sit together and visit.More</t>
   </si>
   <si>
+    <t>RWG19</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r345198312-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -798,6 +888,9 @@
     <t>Stayed here for business for 2 nights and would recommend this hotel. Though the rooms are plain they are clean and comfortable. Was upgraded to a room with a balcony overlooking the pool and enjoyed my stay. Though the breakfast at the Bistro is a little pricey it was fresh, yummy and fast. Great staff!More</t>
   </si>
   <si>
+    <t>abwolverine</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r345165250-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -813,6 +906,9 @@
     <t>I usually stay in a hotel right next to the office I visit in Richardson, but all the hotels right there were already booked. This Courtyard offers free shuttle service to buildings within 5 miles, so that made my stay still very convenient. The shuttle driver was prompt, professional, and friendly. Much appreciated! Front desk staff were helpful and accurate in communicating with me about scheduling the shuttle. This hotel wins points for actually having nice pillows! I always hate hotel pillows but these were pretty good! Room was clean and fairly spacious. Walls are a tad thin but not unreasonable. No noise from outside. I didn't get to go to it, but maybe next time--there's a Waffle House at the end of the block! Also other restaurants within about a mile, such as Pappasito's.More</t>
   </si>
   <si>
+    <t>Justaguy97420</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r342788568-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -837,6 +933,9 @@
     <t>Only stayed one night and we chose the hotel based on the sweet price ($79.00), good reviews and the fact that it was close to where we needed to be.  We were not disappointed.  The good experience started as soon as I entered the door.  The desk clerk was courteous, helpful, informed and down right friendly.  Check in was fast and easy.  We walked into the room and immediately felt at home.  It was a ground floor king suite near the rear of the motel.  It was clean, well lit, spacious, well furnished and QUIET!  We felt like we had hit the jackpot!!  A comfortable bed and a good nights sleep was just icing on the cake.More</t>
   </si>
   <si>
+    <t>Sherri W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r335965147-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -855,6 +954,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>Michael H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r330864903-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -882,6 +984,9 @@
     <t>Only stayed overnight, but the room was great with a separate room with the king size bed. As it was a brief stay didn't interact with the staff at all so really can't comment about them, as the breakfast isn't free went to the local McDonalds for breakfast.More</t>
   </si>
   <si>
+    <t>Amanda J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r320078841-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -909,6 +1014,9 @@
     <t>Husband stayed one night because the other hotel we booked wasn't available this day...so, we started our 4 day vacation here. We should have cancelled the other hotel and ONLY stayed here! Incredibly courteous staff at check-in! Clean, modern hotel. Room was spacious and had a little couch too. Perfect!  Bed was AMAZINGLY comfortable. Shower water pressure was excellent. Free breakfast the next morning was great...and the lady in their little bistro was just a joy! Happy, Courteous, quick...really started our day off wonderfully! When we left, we went to a supposed "higher luxury hotel"...we regretted it and immediately knew we should have just stayed at Courtyard all 4 nights! You've earned return business!  We WILL be back and will seek your brand when we travel next to other states! THANK YOU! More</t>
   </si>
   <si>
+    <t>Carl C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r286417024-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -936,6 +1044,9 @@
     <t>Stayed on the first floor with a sliding door to the pool area.  Very nice landscaping.  Nice clean and comfy room. Vanity separate from bath (wife likes that).  Micro and fridge in room.  Really nice lobby, and staff was great. Easy access to highway.More</t>
   </si>
   <si>
+    <t>IH8ILUV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r278487369-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -963,6 +1074,9 @@
     <t>Stayed here the weekend of May 30 after having a terrible experience with Gaylord Texan Resort. Check in was quick and easy and the desk clerk was very friendly. The room was very clean, and cozy. Location turned out to be perfect and close by my best friend whom I was visiting. It's tucked away but I give this hotel  thumbs up all the way around. OHHH! The breakfast is awesome!More</t>
   </si>
   <si>
+    <t>Allen U</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r276161689-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -981,6 +1095,9 @@
     <t>This is my second time coming across a Courtyard by Marriott and although this particular location is hidden and dated, the rooms are very modern. The staff was very friendly in accommodating me and even didn't mind shifting me around from the 2nd floor to my preference the top floor. The rooms are clean, bathrooms were spotless and hotel is nestled on a side street away from the Central Expressway. I stayed here for the excellent Marriott Elites pricing, $60 per night at a Marriott and I'm all in. OVERALL: Great rooms, exceptional service, comfy beds, excellent A/C, and even the balcony was a plus! I won't mind the extra drive from Dallas to this Richardson Courtyard in the near future! AWESOME SERVICE, EXCELLENT RATES AND ROOMS!   More</t>
   </si>
   <si>
+    <t>Art R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r274824785-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1005,6 +1122,9 @@
     <t>Close to everything and easy on off of major highway.  Rooms were clean and smelled great. Grounds were clean and and safe area.  Plenty of parking and next to pharmacy.  Also just a few lights from a Grocery store.More</t>
   </si>
   <si>
+    <t>Allen F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r273191575-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1029,6 +1149,9 @@
     <t>I stayed here just as the renovations were finishing, and the hotel looks great. With the new bistro I will miss the breakfast and coffee, but the updates to the hotel are nice, and admittedly it is nice to be able to grab dinner without going out.More</t>
   </si>
   <si>
+    <t>outriggerTexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r272171217-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1047,6 +1170,9 @@
     <t>Have stayed here 6 times before and been very happy.  This time in the first room we were assigned the bath floor looked dirty. Upon closer inspection saw several long hairs on the floor which raised concerns about the carpet &amp; bedding being cleaned.Asked for another room and it was perfect.  The room renovation is very nice except for the sofa.  The rooms used to have a "normal" sofa and now the weird thing that passes for a sofa is so uncomfortable (but likely expensive), some designer sure made a killing. We have always had the Stay for Breakfast package.  Nothing fancy but very good cooked to order eggs and coffee, as much as you want, out of a real cup.  We always really looked forward to an enjoyable breakfast.....but no longer.  Now you get one beverage &amp; one breakfast sandwich at the modern "bistro".   So it was a small coffee in a paper cup and a fast food type breakfast sandwich.  But less tasteful than a fast food breakfast sandwich, (I only ate half).  The kicker was the bill for the 2 coffees &amp; 2 sandwiches was less than the Stay for Breakfast upcharge.  Fell sort of "taken" .Yes the rooms are nice and the hotel is very pleasant, but I will go to the Waffle House a block away for a real breakfast from now on.More</t>
   </si>
   <si>
+    <t>Jorge A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r271567713-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1065,6 +1191,9 @@
     <t>After 17 hotels renovated, this one have been the best one for far, the managment Brian, Anthony and Michelle are the best  in the business for sure, the service is friendly and meticulous, the hotel is in perfect conditions by maintenance crew Julio and Everth all the personnel is amazing thanks for everything, excellent teamwork keep it up!!!More</t>
   </si>
   <si>
+    <t>Fred A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r270833721-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1089,6 +1218,9 @@
     <t>Full disclosure: I used my loyalty club points, and chose this simply because it was convenient to where I would be when this particular job ended, and it was not an exorbitant "points purchase."What a great hidden gem! It is only a few blocks form Central Expressway (I-75, major artery), but it almost seems like it's removed from the hustle-bsutel because of the landscaping and property design.Very clean. VERY friendly check-in and check out.Nice, small "bistro" with hot entrees, salads, sandwiches and snacks. Not large, and they don't make any pretensions--it's just a nice convenience, if you don't really want to go out for dinner. I enjoyed my salad: fresh food, right price and efficient service.I will return here again, because these people know how to run a motel!!More</t>
   </si>
   <si>
+    <t>tylor s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r266855574-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1114,6 +1246,9 @@
   </si>
   <si>
     <t>The place looks great, but they're still working on it.  It's frustrating to wake up to drilling and non-working elevators.  But once they're finished, it'll be worth the wait.  I asked to get a small discount on my room for being woken up, but they wouldn't do it. They gave me some "points" on my rewards account.  Oh well, just don't stay here unless you can handle renovations.More</t>
+  </si>
+  <si>
+    <t>pmmom</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r259346429-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
@@ -1147,6 +1282,9 @@
 Next day I was told the family will check out the next day.    So I decided I will be okay for just 1 more night.  The dude in the front desk did ask if I want to transfer.  The...I would give my experience 2 stars if not for the friendly staff.  The property is under renovations.     But that did not really bother my stay.  What made my stay unpleasant was the lack of considerations or thought when assigning rooms.   The hotel was not busy and had plenty of rooms. The girl that checked me in put me right next to the stairs on the second floor, facing the parking lot.  And then she put in a couple with 2 young kids next to my room.   Really?  Why would you do that?  So there was noise coming from the cars in the parking lot, with doors closing and the beeps from locking the doors.   There was noise coming from the stair doors both from first floor and second floor that I can hear clearly from my room.  Then the kids were bouncing off the wall and/or crying.  These were all happening throughout the night.  The noise from the parking lot and stair door stops before midnight.  But the kids were so noisy past midnight.   I had to call front desk and the dude said he will attempt to call them and I can transfer to another room the next day.Next day I was told the family will check out the next day.    So I decided I will be okay for just 1 more night.  The dude in the front desk did ask if I want to transfer.  The kids were bouncing off the wall again, but they quieted down at midnight.There was a fridge in the room.  Free coffee in the lobby.  No free breakfast.  Rooms were clean.  Housekeeping okay.  Bed was lumpy on each side but I just slept in the middle part and that worked.My room seems renovated so seems like this is it.   The walls seems like paper thin.  Maybe there are other rooms that will be quieter.More</t>
   </si>
   <si>
+    <t>consum1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r254699295-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1174,6 +1312,9 @@
     <t>This property is located off a main street and was under construction for renovations to rooms and lobby but was still very quiet. There is a Chilie's restaurant and a Waffle House next to Hotel. Freeways were close and Walmart down the street.  I was on a trip driving from Phoenix to Houston and stopped to get some badly needed sleep.  The customer service was great and Logan Roberson made sure I was in an uninterrupted area of the Hotel so I could get a little shut eye before getting back on the road.  The Hotel was older but very clean and neat.  The customer service of all the staff I was in contact with was more than helpful!  I will be staying here next time I am in the Dallas area.More</t>
   </si>
   <si>
+    <t>Tony9876</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r248792462-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1201,6 +1342,9 @@
     <t>Why my favorite?  This is a modern, clean place in a great location that still has the classic Courtyard style--including buffet breakfast and free coffee in the lobby.  A small number of people like the Bistro concept that most Courtyards have gone to--I do not. I hope this one never changes. It's also worthwhile to note the petty reviews about this property, like 'no free breakfast.' If you think about it, no hotel offers 'free' breakfast; it's simply included in your rate--and those have no kitchen; they have a staff that warms up your pre-made, usually tasteless, meal. Those who know enough about the various chains also know Courtyards have never offered 'free' breakfast, although they do offer breakfast-included rates.  The service and staff here were great, and I got a great weekend rate. As a Platinum Elite member who stays at a variety of Marriott properties, I can highly recommend this one.More</t>
   </si>
   <si>
+    <t>JeffF78722</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r246042928-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1228,6 +1372,9 @@
     <t>The property was okay and the room was relatively nice, but it's supposed to be a non-smoking property.  I was awaken by the smell of cigarette smoke coming from a neighboring room late at night.  When I went into the hall the smell was strong.  Guests were smoking in their rooms, which is against hotel policy.  When I contacted the front desk, they guy sent up a maintenance man with a bottle of fabreze to spray in MY room, as if that would help anything.  They should have enforced their policy and offered to move me to another room.  Won't stay there again.More</t>
   </si>
   <si>
+    <t>sundaemonday</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r245699325-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1252,6 +1399,9 @@
     <t>The staff is rude and No management is on site. They ask for a huge deposit and charge you for breakfast. I will not stay here again. I would rather go down a couple streets to Comfort Suites they have free breakfast and nice rooms with great service. I would pay extra for service. More</t>
   </si>
   <si>
+    <t>technovelist</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r242527291-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1279,6 +1429,9 @@
     <t>The staff is very helpful and friendly, and the rooms are comfortable if a bit worn. I understand they will be updating it soon; the only downside to that is, if I understood the manager correctly, after the renovation it won't be a category 1 hotel anymore, so it will take more points to stay there without paying cash. :-(More</t>
   </si>
   <si>
+    <t>TexasHeart74</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r242405353-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1303,6 +1456,9 @@
     <t>Previously left a glowing review of the property.   Stayed again the next month and wanted to pass on this bit of information.    If you are paying cash for the room and having them swipe your card for incidentals they do not hold the usual $20 per night as the other Courtyard properties.  Budget for them to hold at least $100....even for one night stay.     While the property and staff are great, I did not appreciate the extra amount held out for incidentals.    Unfortunately, I will be staying at another property until they change this practiceMore</t>
   </si>
   <si>
+    <t>Kathy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r237832851-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1330,6 +1486,9 @@
     <t>My family and I stay here once per quarter and have been for over 5 years. The staff is always efficient and hard working. Ms. Michelle is a wonderful woman who manages the Dining Room at Breakfast and is  Professional, Friendly, and compassionate about her job. We do not hesitate to recommend this place.More</t>
   </si>
   <si>
+    <t>bassadict69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r235515889-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1357,6 +1516,9 @@
     <t>Stayed here 3 nights while in town for the State Fair. Rooms were comfortable and beds were great! Only thing we did not like was placement of the tv, which was placed beside the bed on the dresser rather than across from the foot of the bed. The beds are placed in a way so they are against your bathroom wall rather than against the wall of the room next to you. I can understand this as it keeps the bed and headboard from disturbing your neighbors while they are sleeping and you and your significant other are playing!Rooms are really quiet. We never heard any doors slamming and never heard any outside noise. Housekeeping did an excellent job of cleaning our room daily and supplying us with clean towels.Breakfast was awesome and HOT! All staff was super friendly and helpful.Only other complaints was no fridge in room but staff quickly placed one in our room when we asked for it. Also, this is the only hotel I have ever stayed in that did not have in room safes although we were told there was deposit boxes at the front desk we could use.Overall it was an excellent stay and better than many other more expensive hotels we have stayed in and we would definitely stay here again!More</t>
   </si>
   <si>
+    <t>AlwaysTDY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r233151936-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1381,6 +1543,9 @@
     <t>I reserved a two queen room and a king room with Marriott Reward points for our family of five. I requested for the two rooms to be connecting since it was for the adults to have a little privacy at times. Prior to checking in, I called the hotel to see if the request was noted in their reservation system. The clerk said that he had already made sure the two rooms were connecting and were the correct room types. After checking in later that day, I went to pick up some carryout pizza while the family went to the hotel pool. Upon return to the hotel, I realized that we had no plates for dinner. I asked the front desk clerk if they had anything and they grabbed some paper plates from their breakfast area for us. Also, I requested a late checkout (1PM) since Marriott properties tend to accomodate their Elite members with that priviledge if capacity permits. Once again, they were able to facilitate that request as well. Looking back at our stay, I realized that I asked for things left and right from the staff. However, they didn't hesitate and fulfilled every request. I would definitely stay at this property again. Great job guys. Keep up the great standards that you already have in place.More</t>
   </si>
   <si>
+    <t>Hoosintex</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r231954548-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1408,6 +1573,9 @@
     <t>We arrived late on Friday with a reservation.  Were met by really nice staff who had us out of the office and in our room in less than 10 minutes.  Very efficient.   We paid the extra $5 to add breakfast to our room, and were glad we did.  The attendant taking care of the area was OUTSTANDING!  She had a special sense of hospitality.  I know it is not in a happening place as a previous reviewer stated, but really, we wanted a comfortable, safe place to stay at an affordable price, and were extremely pleased with the find.More</t>
   </si>
   <si>
+    <t>GloriaMunday</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r231707139-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1426,6 +1594,9 @@
     <t>Arrived  here for an Antiques Show in Richardson. When Checking in I inquired about a larger room and the desk looked and found a larger room  for me for just a small amount  more per night. 3 of my cousins  came to see me at the hotel and we were able to have rooms close together. The hotel was convienient to  Central Expressway...which means you can go anywhere  quickly...after rush hour. There was a nice breakfast... a Laundry Room that used quarters. However, do all your wash  first then use the dryer...so you can  get the full time for the drying. Never knew this property was here. I would recommend it. Oh, there was a Chili's in walking distance.More</t>
   </si>
   <si>
+    <t>kofidoe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r231227178-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1444,6 +1615,9 @@
     <t>Wonderful staff. Across the street from the freeway. Easy access to all the major attractions in the DFW. Quiet area with restaurants like chilis, papasitos, papadeaux, cheddars among others around the corner.Liked the pool , well kept, rooms  and the beds are comfortable.More</t>
   </si>
   <si>
+    <t>PRVistor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r230313434-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1468,6 +1642,9 @@
     <t>I stayed here with a couple of girlfriends for a shopping weekend.  Courtyard is right off Hwy 75.  Easy to find and get to off the highway.  Richardson is a great location between all of our stops.  Courtyard had a fantastic advertised rate with breakfast of $69/night.  The hotel was clean, the beds were comfortable and the staff was friendly.  We didn't arrive until late Friday night but were able to check-in in a flash.  They accommodated our request of adjoining rooms with no problem.  The shower had wonderful pressure.  I did like how the vanity was outside the bathroom which helped with getting ready in the morning.  The treadmill in the gym was sufficient for my needs.  I forgot my headphones and the front desk had a disposable pair but they didn't work.  Not their fault.  This hotel met all our needs and more.  If we get the same rate next year, we will be back!More</t>
   </si>
   <si>
+    <t>ray_priddy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r229710030-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1484,6 +1661,9 @@
   </si>
   <si>
     <t>This is my second stay at this property.  It is usually the cheapest Marriott property in the US-75 corridor (and usually tied for 2nd or 3rd cheapest in the whole metroplex), and since my primary hotel loyalty is with Marriott, I usually stay here when visiting friends.  As some other reviewers have mentioned, the property is in a semi-commercial area of town.  Actually, it looks like the area was meant to be developed more than it has, so this hotel was built to fulfill a need that never really arose.  Like others have said, except for the Chili's, there isn't much going on in this part of town at night and the premises is a bit dark at night.All that being said, the furniture has been updated, and I stayed at this property for four days and slept well the whole time.  The rooms are clean, comfy, and the wi-fi and parking are free.  Even numbered rooms face courtyard and are quieter. Odd numbered rooms face out, but there isn't much noise in this area. I'll be staying here again because you really can't beat the value.More</t>
+  </si>
+  <si>
+    <t>0504Traveller</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r228562261-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
@@ -1514,6 +1694,9 @@
 The Hotel: The hotel itself is U-shaped with the rooms on the outside and a courtyard with a pool on the inside.  There is a main entrance in the middle, but there are also multiple entrance from the outside and from the courtyard to the various sections (all controlled by security doors that require your key to unlock).  The hotel only has...We were going to see family near Frisco so wanted something close to that area.  Most of the hotels in the area were sold out or were very expensive (for some reason) but this hotel was the only one that had rooms at a decent price - I later found out why.  I had also read the TripAdvisor reviews of this being a great hotel and while it was an alright hotel, it was far from being great (I have stayed at better Courtyards). Overall, the rooms were decent and the beds comfortable but the location was not good and the service was alright.  Those along with free wifi and free parking, the product was bad for the price.The hotel is located off the main road behind corporate offices.  There is an entrance from the main road, next to the Chili's, or the main entrance via the side road.  Because the hotel is located in a corporate area, at night there is not a lot going on (let's just say you should not be walking at night).  The Hotel: The hotel itself is U-shaped with the rooms on the outside and a courtyard with a pool on the inside.  There is a main entrance in the middle, but there are also multiple entrance from the outside and from the courtyard to the various sections (all controlled by security doors that require your key to unlock).  The hotel only has three floors - and all the views are of either the pool or the parking lot.  There is a large parking lot surrounding the property and there were plenty of spaces available near all the entrances.  From the outside, the hotel looked average - not old but not newThe Rooms: The rooms on the inside looked like they had been build a while ago, but the furnishings and all the furniture had been updated to newer Marriott standards.  From the beds to the desks, all of the furnishings had been updated. As we opened up the door, we walked past the bathroom on the left to walk into the main bedroom area.  On the left hand side were 2 double beds with a nightstand in between the beds.  Next to the beds was a couch/lounge to sit and look outside the window.  Across from the beds was a 3-drawer chest on which stood the TV.  Right next to that was a modern desk with a modern chair (in line with Marriott upgrades).  Right next to the desk was a fridge and microwave. While it was nice to have the fridge and microwave, their placement just in the room was very odd; they seemed out of place.The beds were comfortable and could easily fit 2 people.  The room was also a decent size and there were many ports...More</t>
   </si>
   <si>
+    <t>ncreviews</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r228560911-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1529,6 +1712,9 @@
     <t>Every so often I come across a hotel that seems to have frozen in time. This is definitely the case with Courtyard Dallas Richardson. Pro's: Clean room. Near the highway. Great price. Fast (free) wifi - no need to upgrade. Comfortable bed. Con's: Like I mentioned, this place seems to have frozen in time - around the 1980's. I'm sure that in 1988 this was considered a top notch, super fancy hotel. Now it feels dated and really oddly laid out. The rooms are just strange - old furniture, very, very dated. It's not dirty or run-down, just not what I expected in 2014 from a Marriot. The halls smell like college dorms. It's in an industrial part of town - doesn't feel super safe. Parking area was dark, and didn't feel safe. Very tiny bathroom. All in all, if you are looking for a budget choice, this is a decent stay. But for 20-40 dollars more you can stay in a much nicer/updated place if that is your thing.More</t>
   </si>
   <si>
+    <t>48traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r226370924-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1553,6 +1739,9 @@
     <t>I have stayed here several times and I keep coming back because the service is absolutely top notch and the price on the weekend can’t be beat.On this last trip, I was warmly greeted by Steve who acknowledged my Platinum status and quickly upgraded me to a king suite, which was much appreciated.  The room was great – lots of space with a microwave, mini-fridge, and lots of counter space.  The room had a balcony with a table and chair overlooking the pool – very nice.As others have said, the location is excellent.  The DART station is literally across the street.  Although close to U.S. 75, there is no highway noise.  Lots of restaurants, movie theaters, and a supermarket are nearby.Wonderful hotel – highly recommend.More</t>
   </si>
   <si>
+    <t>b l</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r215030965-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1577,6 +1766,9 @@
     <t>We stayed here twice in the past few months.  The last time we were greated by Leah who gave us excellent customer service.  She was very helpful with the check in process.  The rooms were very nice and and comfy.  They had a small fridge, microwave, and also a balcony.  The pool also felt like a resort pool, it was very nice.  For breakfast, we were greeted by a friendly Michelle who was the breakfast manager.  She was super nice and friendly and I gave her my TripAdvisor Excellent pin.  I would most certainly stay here again!More</t>
   </si>
   <si>
+    <t>Sandra J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r214864532-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1613,6 +1805,9 @@
     <t>I used to stay at the Courtyard Plano/Preston but the recent staff change impacted the customer service and not for the better.    I found this property and "WOW!"   Great customer service, CLEAN rooms, walking distance to DART rail, close proximity to great shopping and activities not to mention a GREAT value.    Steve was the desk clerk this past weekend and was very helpful and friendly.    I travel to Dallas frequently and will now make this my new place to stay!More</t>
   </si>
   <si>
+    <t>SLRNewOrleans</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r212383024-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1640,6 +1835,9 @@
     <t>I chose this hotel because my sister, who lives in the area, recommended it, and it received positive reviews on TripAdvisor.  It is located about a block from the interstate.  We couldn't believe the great rate (AAA).  In fact, it was such a good deal we booked an adjoining king room for my daughter - my husband said it was worth it to be able to use the bathroom when he wanted. Our rooms were on the third floor and were large and clean, with a nice flat screen TV, a sofa, a chair, a small refrigerator, and each room even had a small balcony. A very large work area for our computers was also provided.  Both wi-fi and ethernet connections were quick and easy.  I have a bad back and shoulder, and the bed was even more comfortable than the one I have at home.  It was the best night's sleep I have had in a long time. Breakfast is either an all-you-can eat buffet or you can order just what you want.  I'm not a breakfast person, but my husband said many people were eating the buffet and it looked good, but he ordered cereal, yogurt, a banana and coffee for a cost of $4.00.  The hotel provides free coffee and hot tea 24 hours a day in the lobby.  Both check-in and check-out were quick and easy.  My daughter had a problem with her room key; Julio...I chose this hotel because my sister, who lives in the area, recommended it, and it received positive reviews on TripAdvisor.  It is located about a block from the interstate.  We couldn't believe the great rate (AAA).  In fact, it was such a good deal we booked an adjoining king room for my daughter - my husband said it was worth it to be able to use the bathroom when he wanted. Our rooms were on the third floor and were large and clean, with a nice flat screen TV, a sofa, a chair, a small refrigerator, and each room even had a small balcony. A very large work area for our computers was also provided.  Both wi-fi and ethernet connections were quick and easy.  I have a bad back and shoulder, and the bed was even more comfortable than the one I have at home.  It was the best night's sleep I have had in a long time. Breakfast is either an all-you-can eat buffet or you can order just what you want.  I'm not a breakfast person, but my husband said many people were eating the buffet and it looked good, but he ordered cereal, yogurt, a banana and coffee for a cost of $4.00.  The hotel provides free coffee and hot tea 24 hours a day in the lobby.  Both check-in and check-out were quick and easy.  My daughter had a problem with her room key; Julio came up immediately, and replaced the entire slide/card locking mechanism, checked the room to make sure everything was safe and in working condition. I have stayed in hotels that have cost hundreds a night more than this one and didn't get service this good and this fast.More</t>
   </si>
   <si>
+    <t>Tigerdog68</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r207187148-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1667,6 +1865,9 @@
     <t>Hotel was very clean. We had a room on the first floor with a back door that opened to the pool. That was perfect for us with the kids. pay the extra for all you can eat breakfast..totally worth it! The lady that was in charge of the breakfast was very friendly. My wife left her pillow when we checked out. The front desk quickly located it and even brought it to my parents room for us since they were still guest at the hotel. Great customer service, we will return!More</t>
   </si>
   <si>
+    <t>Tecolate</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r207001205-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1709,6 +1910,9 @@
     <t>The room was perfect,  very clean, great bed, great pillows, great sheets, great AC.This hotel has got it down right.Breakfast (small extra charge) was reasonable and good for the priceHad a good weekend rate and will stay here again.More</t>
   </si>
   <si>
+    <t>John B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r204032278-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1733,6 +1937,9 @@
     <t>Stayed here 2 nites on business. Hotel is close to I-75 and close to lots of shopping and places to eat although not really too many within walking distance.   They do have a free shuttle to take you within 5 miles from hotel which I think is to the Galleria area.  Rooms are clean.  Fitness center adequate -- no free weights though.  Onsite cafe.   More</t>
   </si>
   <si>
+    <t>cheermom91</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r196323035-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1760,6 +1967,9 @@
     <t>We stayed here for NCA cheer competition. I researched the best deals to ride the train to Dallas Convention Center. This was it. Two nights for the price of one night at another hotel closer to convention center. The hotel is clean and nice. People were very friendly. Easy check in and check out. The train station is about 2-3 blocks. You could probably walk but it was too cold and we had stuff to carry so we drove to station and parked for free. Train was really great to get to convention center. No traffice and parking. The hotel is in a business district so not alot of restaurants. Chilis and Wendy's are close as well as a CVS. 7-11 down the street.I would recommend staying here at this hotel. It is great!More</t>
   </si>
   <si>
+    <t>Catsinger199</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r196071568-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1787,6 +1997,9 @@
     <t>We were thrilled with the excellent response to our needs from Property Coordinator Michele Stephens.  She rescued us when we locked our car keys in our new car 30 minutes before our Event outside the hotel was to begin.  She made sure we were shuttled in time &amp; returned to the hotel (when we had the keyless code.) Throughout our stay she continued to exhibit the true example of "Hospitality!"  We will return again and recommend.More</t>
   </si>
   <si>
+    <t>FamilyFourPack</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r195667456-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1811,6 +2024,9 @@
     <t>Overall a good experience at the hotel. Check in clerk was not overly friendly, actually seemed like he was annoyed at customers being in front of him (Steve I think...). All other staff were extremely nice and helpful. All areas including the room were clean. Hotel has been there for a while, but has been kept up rather well. Shower had plenty of hot water and good pressure. Note that there is a small additional charge for breakfast at the hotel. Decent spread with everything you would expect. Nothing fancy here, but it is centrally located to everything in Richardson/Plano/Dallas. ~45 minutes into downtown Dallas with traffic. Having a CVS within walking distance is also nice in case you need anything.More</t>
   </si>
   <si>
+    <t>goonerhater</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r194508129-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1853,6 +2069,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>lv02shop</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r186021773-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1880,6 +2099,9 @@
     <t>The staff here is wonderful!  They helped us get around the Dallas traffic on our way to New Braunfels &amp; extremely helpful &amp; friendly.  The room was very clean &amp; comfortable with a mini fridge &amp; microwave.  Will definitely stop at this location again.More</t>
   </si>
   <si>
+    <t>David S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r183830784-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1901,6 +2123,9 @@
     <t>My family and I stay here every time we come to the Richardson (Dallas) location. The staff is Awesome! Breakfast hits the spot! The hotel has a very loayl feel to it......comes highly recommended. I heard they will be renovating the hotel next year, Can't WaitMore</t>
   </si>
   <si>
+    <t>NeedHotelTime</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r183684367-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1919,6 +2144,9 @@
     <t>My husband and I stayed here overnight last weekend.  The hotel is clean and the front desk was very friendly.  However, this hotel is in need of an update.  While it does have flat screen TV's and fresh bedding, the lobby area is old and the hallways are dimly lit.  No new Bistro with Starbucks coffee options (sad face).  It has a slightly old smell in the lobby as well.  But I must say our room was extra clean, with what seemed to be freshly shampooed carpet.Overall, it was a good, inexpensive overnight stay and met our needs.  But we probably will not stay here again until it is updated.More</t>
   </si>
   <si>
+    <t>freedumusa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r182517796-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1946,6 +2174,9 @@
     <t>This hotel is in a great location close to the light rail system "dart". the room was clean and nice had a balcony in it. the room was very quiet didn't hear outside city noise. Since I came by Amtrak this was real nice just rode the Dart light rail from Amtrak Union station downtown to this hotel. The price was pretty good. there a Chile's Restaurant in front of the hotel. they evening have a walkway from hotel to the restaurant. there also a Waffle house about half block from hotel. I would stay here again if I was in the Dallas area. Front desk people was very nice and help full with anything you needed. The hotel was in a good area of the city. So not to bad to walk at night from the station to the hotel at night.More</t>
   </si>
   <si>
+    <t>BillF07</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r181953605-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1964,6 +2195,9 @@
     <t>This is a very good hotel, if you want a no-frills place to stay in the Dallas area and Richardson is close enough to where you need to be.  Beyond that, it is an excellent value.  This very good hotel offers the lowest rates around.  We just stayed here for 3 nights over Fall Break at $58 per night.  No decent hotel charges $58 per night anymore.More</t>
   </si>
   <si>
+    <t>Yossi C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r168437818-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1991,6 +2225,9 @@
     <t>I was travelling for business purpose to visit TI near-by office, the hotel was very nice, clean and comfortable room. The staff was kind and responsive. The breakfast was fine and the host was friendly. Large parking near the rooms with direct access. Overall, very nice place to stay.More</t>
   </si>
   <si>
+    <t>Celerity</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r161154635-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2018,6 +2255,9 @@
     <t>Very convenient to local Richardson offices. It is old, worn out, and no extras.  The plus: inexpensive and quiet.  The minus: uncomfortable mattress and pillows needed replacement. Checked in after midnight and toilet would not flush.  Front desk managed to improperly swipe credit card and set off MC alert requiring late night phone call.  I got what I paid for but, for another $50 a night, there were better choices.More</t>
   </si>
   <si>
+    <t>tdthread</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r159333440-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2045,6 +2285,9 @@
     <t>Clean hotel with decent-sized rooms. Bed was comfortable, but the fitted sheet would not stay on the mattress. Very quiet too. Didn't pay extra for breakfast, but it looked good, although nothing special. Location is great, with easy access to I-75. Would definitely stay here again.More</t>
   </si>
   <si>
+    <t>EtheB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r158729169-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2072,6 +2315,9 @@
     <t>Comfy beds. Decent bathroom. Rooms kept very clean, although some of the corridors could do with a spruce up. My room (mid Northern side) was very quiet most evenings although Fri &amp; Sat nights were typically noisier. No traffic noise.Very small gym. Functional but with only a few bits of gear. Laundry took quarters - one washer, one dryer. Both located near South-Western corner.Spa was under repair during my stay but looked as if it could cope with quite a few people.Pool looked great - but not much fun in Jan/Feb.Plenty of parking. Quiet side street.CVS about 2 min walk, right next to a Chilis. Many more restaurants only a few minutes drive.Primarily business travelers during the 2 weeks I was there.If staying solo, guard your breakfasts! Three mornings in a row they cleared my table, more than once, the moment I went to get something else to eat! The food is very average. The coffee was actually pretty good - hot &amp; strong, and the woman in charge was real friendly but I simply found it less hassle going to the iHop across the expressway.More</t>
   </si>
   <si>
+    <t>david L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r158222520-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2090,6 +2336,9 @@
     <t>This is an excellent choice for travelers who are seeking an economical stay as well as some comfort. I was satisfied with this Courtyard on both points. The room was very comfortable and clean. It was also rather spacious. The staff was very pleasant and helpful. The only downside, which is relatively minor is that there is not many restaurants to walk to. Your options are either room delivery. So, if your stay is for a few days, it would be helpful to have a rental car. I really enjoyed this hotel!More</t>
   </si>
   <si>
+    <t>Cdav2TX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r154058477-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2103,6 +2352,9 @@
   </si>
   <si>
     <t xml:space="preserve">I have stayed here on numerous occasions as I pass through Dallas.  The property is showing signs of age but the staff makes up for this small shortcoming.  It is a great value, especially on the weekends. </t>
+  </si>
+  <si>
+    <t>whoknows987</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r151116535-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
@@ -2128,6 +2380,9 @@
 Just a couple small complaints.  The lavatory sink drained very , very slowly as the stopper could not be raised.  Since housekeeping would have to be aware of the problem if they ever cleaned the sink, it indicates that there may be a problem with communication between housekeeping and maintenance or a lack of follow through by maintenance.  I was able to adjust the connection under the sink so that the stopper would open but then it would not close.  Apparently, there was a...I was pleased with my stay at this Courtyard Marriott and would not hesitate to choose it again should I be in the area.  It is a pretty typical Courtyard and, at least in my experience, I find Courtyard Marriotts to be pretty decent hotels with reasonable prices.  The room was nicely furnished with a good work space, WiFi included, a sofa, a microwave, and a very small refrigerator.  The room was clean as were all areas in and around the hotel.  The room had a small outdoor balcony.  I didn’t use the balcony but the weather was such that I could sleep with the door open, which was nice.  The balcony overlook a court yard and there was essentially zero noise at night from the open door  I had little interaction with the front desk but, for what interaction I had, they were friendly and helpful.  Check in and check out were quick and efficient.  Just a couple small complaints.  The lavatory sink drained very , very slowly as the stopper could not be raised.  Since housekeeping would have to be aware of the problem if they ever cleaned the sink, it indicates that there may be a problem with communication between housekeeping and maintenance or a lack of follow through by maintenance.  I was able to adjust the connection under the sink so that the stopper would open but then it would not close.  Apparently, there was a more serious issue than just a mis-adjusted stopper linkage.  The carpet was a bit worn in the stairway which does not bother me but may some guests.  The bed was a bit soft for me but seem to be of good quality.  The sound isolation from hallway to the room is not very good.  For my first night, there was a group or several families with kids staying near my room.  No misbehavior, just a number of excited kids going in and out, doors banging, etc.  After the first night, however, I heard almost nothing even though the hotel was sold out.The hotel has a hot buffet breakfast available in the lobby every morning.  Nothing spectacular but certainly a decent assortment of hot and cold foods that should meet the needs of most breakfast eaters.  The buffet was well taken care of and the hostess there was especially friendly.   The breakfast is included with some room rates and not with others so, when you are booking a reservation, make sure you know whether or not breakfast is included.There is not a whole lot of choice for restaurants in the immediate vicinity.  Chili’s, Waffle House, and Wendy’s are all within a few minute walk.  There...More</t>
   </si>
   <si>
+    <t>Robert C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r148247879-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2146,6 +2401,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>Leydeebell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r148175630-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2161,6 +2419,9 @@
     <t>It is a very standard Courtyard with a few surprises - 1. A microwave and a good-size fridge in the room; 2. I asked for a room change and the clerk agreed to it without any fuss; 3. The TV did not work and within minutes of reporting the issue, a lady came to fix it.</t>
   </si>
   <si>
+    <t>DrPWashington</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r147856529-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2174,6 +2435,9 @@
   </si>
   <si>
     <t>Several of us stayed at this property in mid-December on business close to the hotel. It delivers what Courtyard promises--speedy check-in, well-trained and friendly staff, comfortable rooms, reliable (and free) wi-fi, and design that allows guests to relax and work in peace and quiet. The rooms and bathrooms are large, the work space is well-designed, and the layout is easy on guests. There is coffee available in the lobby all day. They do not have the Bistro concept (yet?). The manager overseeing food and beverage was terrific. Rates were terrific, too.</t>
+  </si>
+  <si>
+    <t>bruinsooner</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r146971118-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
@@ -2205,6 +2469,9 @@
 Overall, a very good hotel room for the price.  We paid a Senior Rate of about $65 before taxes which is very reasonable for the quality and size of the room and its...Reservations in advance; quick check-in.  On the Courtyard reservation web site, we were asked what kind of pillows we wanted in the room.  We answered foam.  We were also asked what floor we preferred; we did not reply.  At check-in, I was asked what floor I wanted to be on.  I answered the 3rd thinking it would be quieter.  We did not have foam pillows; a room with foam pillows was not waiting for us.  Otherwise, check-in went fine.  This property has elevators.Rooms were fairly large; small towels in the bathroom and only 3 towels for 3 people.  The room was quiet; the entire hotel was quiet.  All equipment worked properly.  We just wished we would have had the foam instead of feather pillows.  We stayed here 2 nights.  The first morning, we slept in until we happened to wake up.  The second morning, the alarm clock sounded at 6:30 AM; we did not set the alarm!!  Who did??The hotel offers a breakfast buffet for about $10 or we could order ala carte.  We ate at an IHOP on west side of US-75 service road one morning and a Waffle House near the hotel on the second morning.  Both meals were under $10 per person.Overall, a very good hotel room for the price.  We paid a Senior Rate of about $65 before taxes which is very reasonable for the quality and size of the room and its location in a major metro area.  I would stay here again as well as the Courtyard a few miles north on US-75 just off Campbell Road.  Both are excellent with great room rates; just no breakfast included.More</t>
   </si>
   <si>
+    <t>CCTVTrainer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r141046540-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2226,6 +2493,9 @@
     <t>Hilton Brand Properties are my first choice as I stay with them 100+ nights a year, but have been trying some Marriott Properties recently so I thought I'd give Courtyard a try...You can't beat the rate...$51.00 a night! That's normally close to roach motel type rates but not here. You cannot beat it for the price.The room was clean and layout was nice. While something small, I love that most Marriott properties have plugs readily available in easy to reach places, like the night stands. I get so sick of moving furniture to find a plug! Nice to have plenty of desk space and plugs for all your devices.Bed was comfortable, AC worked like it should and the room was quiet, no noise from other rooms. Nothing bad to say...More</t>
   </si>
   <si>
+    <t>alexvox</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r139369806-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2241,6 +2511,9 @@
     <t>It's amazing how consistent that the Marriotts can be.  Nice quality rooms where everything works and everything's clean.  As a traveler you can't ask for more than that from a bargain like this.  Don't expect great views off your balcony or a well-stocked mini-bar.My one complaint with Marriotts in general:  Be up front about your internet connections!  Free WIFI means FREE WIFI, don't give me WIFI Lite (it said for email=totally worthless) and make me pay for the regular version.Other than that big thumb's up!</t>
   </si>
   <si>
+    <t>wldwmn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r136813852-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2262,6 +2535,9 @@
     <t>We have stayed at this hotel many times as we have family in the area. The weekend rates are unbeatable. Try for the rates which include breakfast, as they still have a full breakfast buffet. Thankfully they have not installed the Bistro concept yet, and I hope they never do. The front desk staff are unfailingly polite and helpful. Michelle, who is one of the managers, also runs the breakfast buffet; she is a gracious and charming host. She gets to know all the guests, and recognizes her repeat customers. Housekeeping is good, and they pass my "behind the door" test, cleaning behind the bathroom doors, which is often overlooked.  There is a Chilis within walking distance, end of the parking lot, and a CVS pharmacy at the other end.  Hotel has very easy access to 75. The hotel is looking a bit worn in spots, but in no way rundown.More</t>
   </si>
   <si>
+    <t>Philibuster</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r136339703-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2280,6 +2556,9 @@
     <t>Wow did we get a great rate on this place for a July weekend.  We got a $61 rate through marriott.com and got a $25 Mastercard gift card when we checked out!  The hotel's location is within striking distance of really anything you'd want to do in the Dallas area.  The rooms are spacious enough and the bathrooms are fairly nice, as well.  The common areas have seen better days but are by no means trashed.  The weird thing was the refrigerator in the room: definitely an after thought as it was beneath the sink and it seemed like they got it second-hand at a garage sale; just a little 2 foot cube.  Also odd were the two types of internet: free and pay-for-speed.  If this was some four-star hotel in downtown Dallas I would expect to have to pay for internet, but not at a random Courtyard in Richardson.  Lastly, and this continues to disappoint me about all Courtyards, it would seem, is the fact that they charge for breakfast.  All in all, the hotel was nice, in a great location, and had a great price, just some little oddities that could be easily fixed to make this a five-star-worthy rating.More</t>
   </si>
   <si>
+    <t>The_Real_Birdcatcher</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r134678294-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2301,6 +2580,9 @@
     <t>Positives: Clean; spacious; polite staff; fantastic valueNegatives: Outdoor pool; a little frayed around the edgesWe were looking for an economical place to spend a weekend in the Dallas area and were pleasantly surprised to find value pricing at this Courtyard for Friday, Saturday, and Sunday visits.To say the room was unremarkable is a compliment, as it shows the staff closely follows the typical Courtyard formula that promotes "no surprises" for business clients. The furniture, bedding, and fixtures were clean and well-organized. All appliances functioned properly and the large flat-screen television offered a variety of programs.The only two "negatives"...if you can call them that...were the outdoor pool and the fact the property is showing its age in the decor, bumps and scratches, worn spots in the carpet, etc. We decided against going into the pool as temperatures during our visit topped 100 degrees Farenheit, and we didn't want to "slow boil" while exposing ourselves to a lot of sunlight.Overall, the property was in immaculate condition, and is probably the best lodging value I've seen in ten years. This hotel is worth your consideration if you plan a trip to the north Dallas area...or if you're just looking for a nice place for a getaway.More</t>
   </si>
   <si>
+    <t>monkAustin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r131966292-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2316,6 +2598,9 @@
     <t>Got an incredible rate of $47 through marriott.com. We had a pleasant stay there. Standard amenities for this class of hotel: pool, spa etc. The room had two queen beds, which turned out well while traveling with kids. The room also had a coffeemaker, mini fridge and microwave.</t>
   </si>
   <si>
+    <t>step12dude</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r131225424-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2334,6 +2619,9 @@
     <t>Stayed here one night in a single room.  Room was nicely furnished with a large bed, ample workspace, and everything was spotless.  Check-in was handled by a friendly and efficient employee.  Location is good but a bit hidden, but within walking distance of DART light rail and close to US75/Central Expressway.  Check-out was likewise handled by a friendly and efficient person.This hotel is everything one expects from the Courtyard brand - efficient service, delivered in a friendly manner, in nicely appointed rooms that are spotless. Special weekend rate for Marriott Guest Rewards travelers made this an excellent value, at under $45/night (before taxes).  Book through the Marriott website and when checking rates, look for a tab for the special rate.  It's not obvious unless you look for it, and it may or may not be available when you book, as I don't know if this was a short term promotion.  AAA rates are available, and I was originally checking AAA rates when I saw this tab displayed on the rate display.What more can I say?More</t>
   </si>
   <si>
+    <t>George44535</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r129552775-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2352,6 +2640,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>dpwoodfin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r129233084-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2370,6 +2661,9 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>Searcy_55</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r127051983-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2391,6 +2685,9 @@
     <t>The room is updated and clean.  No problem there.  Breakfast is additional.  OK.  But...the big bus from Little Rock pulled in and they placed me in an adjoining room with a door (so you can hear everything they are saying) to a room full of loud partiers.  Their friends were in the rooms across the hall and apparently most of that part of the hotel was the party bus.  At 1:15am I called Kelly at the desk and told her it had to stop!  I heard the phone ring next door and it finally got quiet in the room and out in the hall until 2am when someone had to dry their hair.  Obviously, I had to start the next long day with little sleep.  Not acceptable.  My only choice at that point was to be more inconvenienced and pack all my things and move.  The guy at the desk asked me if I wanted to move to the other side.  So why didn't they place me there to begin with???  Were they trying to accommodate the maids?  The following morning someone came down the hall at 7:30am banging on doors and telling people to wake up.  What was this.....CAMP?  Ultimately, this is a management problem.  I should never have been placed in the middle of this group and disturbed as I was.  A good manager would have given such instructions to employees.More</t>
   </si>
   <si>
+    <t>Cryoking</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r124865040-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2409,6 +2706,9 @@
     <t>The price is what brought me here, &amp; was worth what I paid. If you're looking for a brand new hotel, keep looking. Nice quiet location. There's a Chili's and CVS right across the parking lot and a Waffle House across the street. Lots of food and shopping within 1 mile. Breakfast buffet was $10.50- I passed. Hotel is older and could use some updating. Nightstands, headboard and dresser/desk, flatscreen tv looked new, but wallpaper peeling, couch worn. Not a pillow top mattress, but still comfy. Don't know if the walls are thin, or if my neighbors were just noisy, but heard 'banging' sound from next door, stopped before 10pm, so no big deal. Overall nice stay. More</t>
   </si>
   <si>
+    <t>McLean4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r123162714-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2427,6 +2727,9 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>Susienashie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r122006151-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2442,6 +2745,9 @@
     <t>Nice, clean rooms, friendly and helpful staff, excellent rates-including breakfast, perfect for our family-visiting trip.  I even felt safe in the parking lot at night.</t>
   </si>
   <si>
+    <t>drc225</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r120851159-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2463,6 +2769,9 @@
     <t>Stayed one night at the rate of $99 + taxes booked off the Marriott website. I knew I was getting in late and departing early and there just wanted a decent room for the night. The Courtyard is a good standard and you know what you will get.In the end I got in a little earlier than expected and was able to pop next door (just across the car park) to Chillis for a meal. Upon check-in they were playing some game where I had to chose a prize. I won a free breakfast - hooray. Standard Marriott Courtyard breakfast but, apparently, no omelets made to order - a shame. Exercise room is basic but the x-trainer worked. Free internet was fine. So, all in all, a standard Marriott Courtyard experience - this is a good thing.More</t>
   </si>
   <si>
+    <t>Griffins22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r119220711-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2484,6 +2793,9 @@
     <t>I was surprised that you have to pay for breakfast thank goodness for the waffle house down the street.  There weren't any vending machines either.  You have to go to the bottom floor and buy out of their "market" which is quite pricey.  No fridge or microwave.  Somewhere I saw where the water was complimentary but in the room there is a tiny price tag of 2.50 per bottle.  For the price that we paid for the room there were not a lot of amenities that were free.  There is a charge for everything.  They also put a 50.00 hold on my credit card just in case we charged anything to the room.  Probably won't stay here again.  Too many other nice hotels in the area that offer more perks.  The room was clean and bug free so that was a good thingMore</t>
   </si>
   <si>
+    <t>OK_traveler999</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r118179686-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2505,6 +2817,9 @@
     <t>The Courtyard Dallas Richardson at Spring Valley is a good place to stay when visiting Dallas.  We have stayed here several times over the past few years on weekend trips to Dallas and it suits our needs.  The rooms are clean and comfortable.  Beds are comfy and linens are nice, and the bathroom vanity is well lit.  The pool area is outdoors and is welcoming, with shaded areas if desired. Breakfast is top-notch.  All of the standard fare in a well stocked breakfast area with plenty of seating.  The host Michelle has been there every time we have stayed there and she is funny and attentive.  During one stay when my father-in-law was with us she went above and beyond and brought him out 2 diet cokes from the back so he could get his morning fix.  He was impressed!  Be sure if you are getting breakfast to get the room rate that includes it, otherwise you will have to pay.  The location is convenient to 635 and 75 but the hotel is very quiet since it is just a bit away from the highway.The service at the hotel is top notch, basically everything one could ask for: value, cleanliness, easy checkin and checkout, and nice rooms.More</t>
   </si>
   <si>
+    <t>joelinda</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r116869528-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2523,6 +2838,9 @@
     <t>August 2011</t>
   </si>
   <si>
+    <t>retired080</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r115702038-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2541,6 +2859,9 @@
     <t>The layout of the hotel was confusing.  We sat through huge traffic jams all the way up from Dallas.  It cost $2.50 to do a load of wash and the same to dry.  They put out bottles of water that look like they say VIP, in reality they say VP.  It is not until you have opened one that you notice the fine print that they cost $2.50 each.  These are not in the refrigerator, they are sitting right out on the dresser.  My husband also came down with red, itchy bumps after staying at this hotel, he was miserable for days.  The only good thing I can say about this hotel is that it was near South Fork.  We found this out from a brochure.  The desk clerk did not even know there was a JFK museum in Dallas and the hotel did not have any printed out directions to get there or to South Fork.  I would never battle the traffic to get there again.More</t>
   </si>
   <si>
+    <t>Onesmallrat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r115232589-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2556,6 +2877,9 @@
     <t>Very typical Marriott Courtyard. Have stayed in about 3 different ones in Dallas. This is no better or worse than the others. The location is fairly quiet and safe. Great price, cheapest of all the Courtyards in the city.</t>
   </si>
   <si>
+    <t>distance67</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r51237445-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2574,6 +2898,9 @@
     <t>December 2009</t>
   </si>
   <si>
+    <t>waay2be</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r35043131-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2592,6 +2919,9 @@
     <t>July 2009</t>
   </si>
   <si>
+    <t>clint80</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r33403881-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2610,6 +2940,9 @@
     <t>June 2009</t>
   </si>
   <si>
+    <t>chuckbr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r20889749-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2626,6 +2959,9 @@
   </si>
   <si>
     <t>October 2008</t>
+  </si>
+  <si>
+    <t>MiddleAgedNana</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r16430377-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
@@ -2659,6 +2995,9 @@
 I did not eat...This was my first experience at a Courtyard, but I was very pleased.   A gigantic step up from even the nicest complaint-free (by me) Motel 6 or Best Westerns I've stayed in, and for virtually the same price with a little research and a AAA membership.The place was roomy with nice furnishings and great HSIA capability.  Very clean.  Fridge &amp; coffee maker; no microwave, but I suspect that is to encourage eating in their dining room.  Hair dryer and iron/ironing board were provided.  Funny to me, but it was apparent that someone only slept on one side of either of the two queen beds.  Which tells me the mattresses could be rotated/flipped a little more often.  It wasn't the greatest bed I've slept in, nor was it the worst.I did have some noisy, door-slamming neighbors, but this is no fault of the Courtyard.If I had to change anything, one would be the fact that you have to unplug the refrigerator to use the hair dryer, and the other would be for the reservation agent to ask whether or not you cared if you were poolside.   As it turned out, I was poolside and didn't enjoy all the noise (mostly just kids having fun or parents yelling at kids) while I was trying to sleep.  The pool was open to 11pm, I believe.  However, if I'd wanted to swim, it's a nice added attraction.I did not eat in their restaurant and don't know if it has a cocktail area.The staff was very accommodating and represented the company well.I was so happy with my stay that the Courtyard is my new lowest-level standard for where I will stay when traveling.More</t>
   </si>
   <si>
+    <t>thomasgmay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r11999478-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2677,6 +3016,9 @@
     <t>September 2007</t>
   </si>
   <si>
+    <t>abqtravelermta</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r11313661-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2696,6 +3038,9 @@
   </si>
   <si>
     <t>I was pleasantly surprised by this Courtyard. Truthfully, there are very few surprises with Courtyard allowing for their rampant standardization, but the staff here made all the difference. The location is in a business park just east of the freeway and a shopping mall with Neiman Marcus is just on the other side. While the location is close to the freeway (North Central Expressway/US 75) the hotel is very, very quiet. The front desk clerk was "FG" ("Fully Gorgeous") and he noticed I was 1 night away from "Silver" status so he very kindly upgraded me to a suite with courtyard view.  (The hotel was maybe 30-40% full that night.)  I also asked if he would recommend a local establishment that delivered pizza and he gave me a menu for Campisi's, which turned out to be excellent. I forget what they call it -- The Market?  The Pantry? -- in any event bottle water, sodas, beer (no lie!) and snacks where available to purchase in the lobby.  You just select what you want, the front desk scans it and the charges are added to your room bill.  Costs for these items was reasonable.  My suite was recently renovated and very, very clean.  The hotel was so "under-booked" I think I only encountered one other guest while I was there. The business center off the lobby offers PC's for rent at a cost equal to or less than what you might...I was pleasantly surprised by this Courtyard. Truthfully, there are very few surprises with Courtyard allowing for their rampant standardization, but the staff here made all the difference. The location is in a business park just east of the freeway and a shopping mall with Neiman Marcus is just on the other side. While the location is close to the freeway (North Central Expressway/US 75) the hotel is very, very quiet. The front desk clerk was "FG" ("Fully Gorgeous") and he noticed I was 1 night away from "Silver" status so he very kindly upgraded me to a suite with courtyard view.  (The hotel was maybe 30-40% full that night.)  I also asked if he would recommend a local establishment that delivered pizza and he gave me a menu for Campisi's, which turned out to be excellent. I forget what they call it -- The Market?  The Pantry? -- in any event bottle water, sodas, beer (no lie!) and snacks where available to purchase in the lobby.  You just select what you want, the front desk scans it and the charges are added to your room bill.  Costs for these items was reasonable.  My suite was recently renovated and very, very clean.  The hotel was so "under-booked" I think I only encountered one other guest while I was there. The business center off the lobby offers PC's for rent at a cost equal to or less than what you might pay at Kinkos.  However, the PC's are a bit "exposed" so anyone can walk up behind you or sit next to you and see where you're "surfing", LOL.  (You need to use a credit card for these; charges cannot be added to your room.)  I was able to sleep late the next morning and enjoy a leisurely breakfast at Cindi's Deli at Campbell and Coit Roads in North Dallas/Richardson.  (This was another front desk referral; funny that they didn't suggest I dine in their Courtyard Cafe.)  I used "Express Check-Out" and was on my way shortly after Noon.  I stayed at this same location again in April of 2007 and was just as pleased as I was this trip. An outstanding member of the Courtyard collection.More</t>
+  </si>
+  <si>
+    <t>paxxy</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99370-r3475115-Courtyard_by_Marriott_Dallas_Richardson_at_Spring_Valley-Richardson_Texas.html</t>
@@ -3218,43 +3563,47 @@
       <c r="A2" t="n">
         <v>10626</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>5063</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -3268,50 +3617,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>10626</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>127259</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
         <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3325,50 +3678,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>10626</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>80158</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>61</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>59</v>
-      </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3380,56 +3737,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="X4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>10626</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>127260</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3443,50 +3804,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>10626</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>127261</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" t="s">
         <v>79</v>
-      </c>
-      <c r="L6" t="s">
-        <v>80</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>81</v>
-      </c>
-      <c r="O6" t="s">
-        <v>75</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3500,50 +3865,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>10626</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>44329</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3557,50 +3926,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>10626</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>127262</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3614,50 +3987,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>10626</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3669,56 +4046,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="X9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>10626</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>127263</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>2</v>
@@ -3734,56 +4115,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="X10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>10626</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>127264</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P11" t="n">
         <v>2</v>
@@ -3801,56 +4186,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="X11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="Y11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>10626</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>5810</v>
+      </c>
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="K12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="L12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -3870,50 +4259,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>10626</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>9101</v>
+      </c>
+      <c r="C13" t="s">
+        <v>138</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="K13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="L13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="O13" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3925,56 +4318,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="X13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="Y13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>10626</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>148</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="J14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="K14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="L14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3986,56 +4383,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="X14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="Y14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>10626</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>127265</v>
+      </c>
+      <c r="C15" t="s">
+        <v>157</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="J15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="K15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="L15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -4055,50 +4456,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>10626</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>127266</v>
+      </c>
+      <c r="C16" t="s">
+        <v>164</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="J16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="K16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="L16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -4110,56 +4515,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="X16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="Y16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>10626</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>80720</v>
+      </c>
+      <c r="C17" t="s">
+        <v>173</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="J17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="K17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -4171,56 +4580,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="X17" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="Y17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>10626</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>127267</v>
+      </c>
+      <c r="C18" t="s">
+        <v>180</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="J18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="K18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="O18" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4238,50 +4651,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>10626</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>127268</v>
+      </c>
+      <c r="C19" t="s">
+        <v>186</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="J19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="K19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="L19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="O19" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -4299,56 +4716,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="X19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="Y19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>10626</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>89385</v>
+      </c>
+      <c r="C20" t="s">
+        <v>195</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="J20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="K20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4360,56 +4781,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="X20" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="Y20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>10626</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>127269</v>
+      </c>
+      <c r="C21" t="s">
+        <v>203</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="J21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="K21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="O21" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -4423,41 +4848,45 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>10626</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>127270</v>
+      </c>
+      <c r="C22" t="s">
+        <v>209</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="J22" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="K22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="L22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
@@ -4476,50 +4905,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>10626</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>127271</v>
+      </c>
+      <c r="C23" t="s">
+        <v>215</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="J23" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="K23" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="L23" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="O23" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
@@ -4537,50 +4970,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>10626</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>98901</v>
+      </c>
+      <c r="C24" t="s">
+        <v>221</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="J24" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="K24" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="L24" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="O24" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4594,50 +5031,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>10626</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>127272</v>
+      </c>
+      <c r="C25" t="s">
+        <v>228</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="J25" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="K25" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="L25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="O25" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -4657,50 +5098,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>10626</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>42132</v>
+      </c>
+      <c r="C26" t="s">
+        <v>235</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="J26" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="K26" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="L26" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="O26" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -4718,56 +5163,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="X26" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="Y26" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>10626</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>127273</v>
+      </c>
+      <c r="C27" t="s">
+        <v>244</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="J27" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="K27" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4779,47 +5228,51 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="X27" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="Y27" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>10626</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>127274</v>
+      </c>
+      <c r="C28" t="s">
+        <v>254</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="J28" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="K28" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="L28" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
@@ -4836,56 +5289,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="X28" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="Y28" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>10626</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>34325</v>
+      </c>
+      <c r="C29" t="s">
+        <v>263</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="J29" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="K29" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="L29" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="O29" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -4901,56 +5358,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="X29" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="Y29" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>10626</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>127275</v>
+      </c>
+      <c r="C30" t="s">
+        <v>273</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="J30" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="K30" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="L30" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="O30" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4968,56 +5429,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="X30" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="Y30" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>10626</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>32028</v>
+      </c>
+      <c r="C31" t="s">
+        <v>283</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="J31" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="K31" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="L31" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -5029,56 +5494,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="X31" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="Y31" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>10626</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>2712</v>
+      </c>
+      <c r="C32" t="s">
+        <v>290</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="J32" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="K32" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="L32" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -5096,56 +5565,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="X32" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="Y32" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>10626</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>100848</v>
+      </c>
+      <c r="C33" t="s">
+        <v>296</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="J33" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="K33" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="L33" t="s">
+        <v>301</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
         <v>269</v>
       </c>
-      <c r="M33" t="n">
-        <v>5</v>
-      </c>
-      <c r="N33" t="s">
-        <v>241</v>
-      </c>
       <c r="O33" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -5163,56 +5636,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="X33" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="Y33" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>10626</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>17862</v>
+      </c>
+      <c r="C34" t="s">
+        <v>305</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="J34" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="K34" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="L34" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="O34" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -5226,50 +5703,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>10626</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>236</v>
+      </c>
+      <c r="C35" t="s">
+        <v>312</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="J35" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="K35" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="L35" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="O35" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -5287,56 +5768,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="X35" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="Y35" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>10626</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>6382</v>
+      </c>
+      <c r="C36" t="s">
+        <v>322</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="J36" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="K36" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="L36" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="O36" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5348,56 +5833,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="X36" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="Y36" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>10626</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>19766</v>
+      </c>
+      <c r="C37" t="s">
+        <v>332</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="J37" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="K37" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="L37" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="O37" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5415,56 +5904,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="X37" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="Y37" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>10626</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>127276</v>
+      </c>
+      <c r="C38" t="s">
+        <v>342</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="J38" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="K38" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="L38" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="O38" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -5482,56 +5975,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="X38" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="Y38" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>10626</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>127277</v>
+      </c>
+      <c r="C39" t="s">
+        <v>352</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="J39" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="K39" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="L39" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="O39" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5545,50 +6042,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>10626</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>69983</v>
+      </c>
+      <c r="C40" t="s">
+        <v>359</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="J40" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="K40" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="L40" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="O40" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -5606,56 +6107,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="X40" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="Y40" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>10626</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>42355</v>
+      </c>
+      <c r="C41" t="s">
+        <v>368</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="J41" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="K41" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="L41" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="O41" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5667,56 +6172,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="X41" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="Y41" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>10626</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>127278</v>
+      </c>
+      <c r="C42" t="s">
+        <v>377</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="J42" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="K42" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="L42" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="O42" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5732,47 +6241,51 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="X42" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="Y42" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>10626</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>83871</v>
+      </c>
+      <c r="C43" t="s">
+        <v>384</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="J43" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="K43" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="L43" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
@@ -5789,56 +6302,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="X43" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="Y43" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>10626</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>10139</v>
+      </c>
+      <c r="C44" t="s">
+        <v>391</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="J44" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="K44" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="L44" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -5854,56 +6371,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="X44" t="s">
-        <v>355</v>
+        <v>398</v>
       </c>
       <c r="Y44" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>10626</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>127279</v>
+      </c>
+      <c r="C45" t="s">
+        <v>400</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="J45" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="K45" t="s">
-        <v>360</v>
+        <v>404</v>
       </c>
       <c r="L45" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="M45" t="n">
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>362</v>
+        <v>406</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="n">
@@ -5919,56 +6440,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="X45" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="Y45" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>10626</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>127280</v>
+      </c>
+      <c r="C46" t="s">
+        <v>410</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="J46" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="K46" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="L46" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5984,56 +6509,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="X46" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="Y46" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>10626</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>127281</v>
+      </c>
+      <c r="C47" t="s">
+        <v>420</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="J47" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="K47" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="L47" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="O47" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -6049,56 +6578,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="X47" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="Y47" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>10626</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>19432</v>
+      </c>
+      <c r="C48" t="s">
+        <v>430</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="J48" t="s">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="K48" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="L48" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -6116,56 +6649,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>390</v>
+        <v>437</v>
       </c>
       <c r="X48" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="Y48" t="s">
-        <v>392</v>
+        <v>439</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>10626</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>127282</v>
+      </c>
+      <c r="C49" t="s">
+        <v>440</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="J49" t="s">
-        <v>395</v>
+        <v>443</v>
       </c>
       <c r="K49" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="L49" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>398</v>
+        <v>446</v>
       </c>
       <c r="O49" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="n">
@@ -6181,47 +6718,51 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="X49" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="Y49" t="s">
-        <v>401</v>
+        <v>449</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>10626</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>127283</v>
+      </c>
+      <c r="C50" t="s">
+        <v>450</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="J50" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="K50" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="L50" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="M50" t="n">
         <v>2</v>
@@ -6248,56 +6789,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="X50" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="Y50" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>10626</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>127284</v>
+      </c>
+      <c r="C51" t="s">
+        <v>459</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>411</v>
+        <v>461</v>
       </c>
       <c r="J51" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
       <c r="K51" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
       <c r="L51" t="s">
-        <v>414</v>
+        <v>464</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>415</v>
+        <v>465</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -6315,56 +6860,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>416</v>
+        <v>466</v>
       </c>
       <c r="X51" t="s">
-        <v>417</v>
+        <v>467</v>
       </c>
       <c r="Y51" t="s">
-        <v>418</v>
+        <v>468</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>10626</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>127285</v>
+      </c>
+      <c r="C52" t="s">
+        <v>469</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="J52" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
       <c r="K52" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="L52" t="s">
-        <v>422</v>
+        <v>473</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="O52" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="P52" t="n">
         <v>2</v>
@@ -6380,56 +6929,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="X52" t="s">
-        <v>425</v>
+        <v>476</v>
       </c>
       <c r="Y52" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>10626</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>2597</v>
+      </c>
+      <c r="C53" t="s">
+        <v>478</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>427</v>
+        <v>479</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>428</v>
+        <v>480</v>
       </c>
       <c r="J53" t="s">
-        <v>429</v>
+        <v>481</v>
       </c>
       <c r="K53" t="s">
-        <v>430</v>
+        <v>482</v>
       </c>
       <c r="L53" t="s">
-        <v>431</v>
+        <v>483</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>432</v>
+        <v>484</v>
       </c>
       <c r="O53" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -6447,56 +7000,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>433</v>
+        <v>485</v>
       </c>
       <c r="X53" t="s">
-        <v>434</v>
+        <v>486</v>
       </c>
       <c r="Y53" t="s">
-        <v>435</v>
+        <v>487</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>10626</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>127286</v>
+      </c>
+      <c r="C54" t="s">
+        <v>488</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>436</v>
+        <v>489</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="J54" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="K54" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="L54" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>441</v>
+        <v>494</v>
       </c>
       <c r="O54" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6514,56 +7071,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
       <c r="X54" t="s">
-        <v>443</v>
+        <v>496</v>
       </c>
       <c r="Y54" t="s">
-        <v>444</v>
+        <v>497</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>10626</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>127287</v>
+      </c>
+      <c r="C55" t="s">
+        <v>498</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>445</v>
+        <v>499</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>446</v>
+        <v>500</v>
       </c>
       <c r="J55" t="s">
-        <v>447</v>
+        <v>501</v>
       </c>
       <c r="K55" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="L55" t="s">
-        <v>449</v>
+        <v>503</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>441</v>
+        <v>494</v>
       </c>
       <c r="O55" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="n">
@@ -6581,56 +7142,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
       <c r="X55" t="s">
-        <v>451</v>
+        <v>505</v>
       </c>
       <c r="Y55" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>10626</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>127288</v>
+      </c>
+      <c r="C56" t="s">
+        <v>507</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>453</v>
+        <v>508</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="J56" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="K56" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
       <c r="L56" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="O56" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6648,56 +7213,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>459</v>
+        <v>514</v>
       </c>
       <c r="X56" t="s">
-        <v>460</v>
+        <v>515</v>
       </c>
       <c r="Y56" t="s">
-        <v>461</v>
+        <v>516</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>10626</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>127289</v>
+      </c>
+      <c r="C57" t="s">
+        <v>517</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>462</v>
+        <v>518</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>463</v>
+        <v>519</v>
       </c>
       <c r="J57" t="s">
-        <v>464</v>
+        <v>520</v>
       </c>
       <c r="K57" t="s">
-        <v>465</v>
+        <v>521</v>
       </c>
       <c r="L57" t="s">
-        <v>466</v>
+        <v>522</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6715,56 +7284,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>459</v>
+        <v>514</v>
       </c>
       <c r="X57" t="s">
-        <v>460</v>
+        <v>515</v>
       </c>
       <c r="Y57" t="s">
-        <v>467</v>
+        <v>523</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>10626</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>127290</v>
+      </c>
+      <c r="C58" t="s">
+        <v>524</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>468</v>
+        <v>525</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>469</v>
+        <v>526</v>
       </c>
       <c r="J58" t="s">
-        <v>470</v>
+        <v>527</v>
       </c>
       <c r="K58" t="s">
-        <v>471</v>
+        <v>528</v>
       </c>
       <c r="L58" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="O58" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6780,56 +7353,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>459</v>
+        <v>514</v>
       </c>
       <c r="X58" t="s">
-        <v>460</v>
+        <v>515</v>
       </c>
       <c r="Y58" t="s">
-        <v>473</v>
+        <v>530</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>10626</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>127291</v>
+      </c>
+      <c r="C59" t="s">
+        <v>531</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>474</v>
+        <v>532</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>475</v>
+        <v>533</v>
       </c>
       <c r="J59" t="s">
-        <v>476</v>
+        <v>534</v>
       </c>
       <c r="K59" t="s">
-        <v>477</v>
+        <v>535</v>
       </c>
       <c r="L59" t="s">
-        <v>478</v>
+        <v>536</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="O59" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6847,56 +7424,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>479</v>
+        <v>537</v>
       </c>
       <c r="X59" t="s">
-        <v>480</v>
+        <v>538</v>
       </c>
       <c r="Y59" t="s">
-        <v>481</v>
+        <v>539</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>10626</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>127292</v>
+      </c>
+      <c r="C60" t="s">
+        <v>540</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>482</v>
+        <v>541</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>483</v>
+        <v>542</v>
       </c>
       <c r="J60" t="s">
+        <v>543</v>
+      </c>
+      <c r="K60" t="s">
+        <v>544</v>
+      </c>
+      <c r="L60" t="s">
+        <v>545</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
         <v>484</v>
       </c>
-      <c r="K60" t="s">
-        <v>485</v>
-      </c>
-      <c r="L60" t="s">
-        <v>486</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4</v>
-      </c>
-      <c r="N60" t="s">
-        <v>432</v>
-      </c>
       <c r="O60" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="n">
@@ -6912,56 +7493,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>479</v>
+        <v>537</v>
       </c>
       <c r="X60" t="s">
-        <v>480</v>
+        <v>538</v>
       </c>
       <c r="Y60" t="s">
-        <v>487</v>
+        <v>546</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>10626</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>127293</v>
+      </c>
+      <c r="C61" t="s">
+        <v>547</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>488</v>
+        <v>548</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>489</v>
+        <v>549</v>
       </c>
       <c r="J61" t="s">
-        <v>490</v>
+        <v>550</v>
       </c>
       <c r="K61" t="s">
-        <v>491</v>
+        <v>551</v>
       </c>
       <c r="L61" t="s">
-        <v>492</v>
+        <v>552</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="O61" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6975,56 +7560,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>493</v>
+        <v>553</v>
       </c>
       <c r="X61" t="s">
-        <v>494</v>
+        <v>554</v>
       </c>
       <c r="Y61" t="s">
-        <v>495</v>
+        <v>555</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>10626</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>53867</v>
+      </c>
+      <c r="C62" t="s">
+        <v>556</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>496</v>
+        <v>557</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>497</v>
+        <v>558</v>
       </c>
       <c r="J62" t="s">
-        <v>490</v>
+        <v>550</v>
       </c>
       <c r="K62" t="s">
-        <v>498</v>
+        <v>559</v>
       </c>
       <c r="L62" t="s">
-        <v>499</v>
+        <v>560</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="O62" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="n">
@@ -7042,56 +7631,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>493</v>
+        <v>553</v>
       </c>
       <c r="X62" t="s">
-        <v>494</v>
+        <v>554</v>
       </c>
       <c r="Y62" t="s">
-        <v>500</v>
+        <v>561</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>10626</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>127294</v>
+      </c>
+      <c r="C63" t="s">
+        <v>562</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>501</v>
+        <v>563</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>502</v>
+        <v>564</v>
       </c>
       <c r="J63" t="s">
-        <v>503</v>
+        <v>565</v>
       </c>
       <c r="K63" t="s">
-        <v>504</v>
+        <v>566</v>
       </c>
       <c r="L63" t="s">
-        <v>505</v>
+        <v>567</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>432</v>
+        <v>484</v>
       </c>
       <c r="O63" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="n">
@@ -7107,56 +7700,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>506</v>
+        <v>568</v>
       </c>
       <c r="X63" t="s">
-        <v>507</v>
+        <v>569</v>
       </c>
       <c r="Y63" t="s">
-        <v>508</v>
+        <v>570</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>10626</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>115681</v>
+      </c>
+      <c r="C64" t="s">
+        <v>571</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>509</v>
+        <v>572</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>510</v>
+        <v>573</v>
       </c>
       <c r="J64" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
       <c r="K64" t="s">
-        <v>512</v>
+        <v>575</v>
       </c>
       <c r="L64" t="s">
-        <v>513</v>
+        <v>576</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="O64" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -7172,47 +7769,51 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>514</v>
+        <v>577</v>
       </c>
       <c r="X64" t="s">
-        <v>515</v>
+        <v>578</v>
       </c>
       <c r="Y64" t="s">
-        <v>516</v>
+        <v>579</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>10626</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>84144</v>
+      </c>
+      <c r="C65" t="s">
+        <v>580</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>517</v>
+        <v>581</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>518</v>
+        <v>582</v>
       </c>
       <c r="J65" t="s">
-        <v>519</v>
+        <v>583</v>
       </c>
       <c r="K65" t="s">
-        <v>520</v>
+        <v>584</v>
       </c>
       <c r="L65" t="s">
-        <v>521</v>
+        <v>585</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
@@ -7229,56 +7830,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>514</v>
+        <v>577</v>
       </c>
       <c r="X65" t="s">
-        <v>515</v>
+        <v>578</v>
       </c>
       <c r="Y65" t="s">
-        <v>522</v>
+        <v>586</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>10626</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>127284</v>
+      </c>
+      <c r="C66" t="s">
+        <v>469</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>524</v>
+        <v>588</v>
       </c>
       <c r="J66" t="s">
-        <v>525</v>
+        <v>589</v>
       </c>
       <c r="K66" t="s">
-        <v>526</v>
+        <v>590</v>
       </c>
       <c r="L66" t="s">
-        <v>527</v>
+        <v>591</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="O66" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="n">
@@ -7296,56 +7901,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>514</v>
+        <v>577</v>
       </c>
       <c r="X66" t="s">
-        <v>515</v>
+        <v>578</v>
       </c>
       <c r="Y66" t="s">
-        <v>528</v>
+        <v>592</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>10626</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>97431</v>
+      </c>
+      <c r="C67" t="s">
+        <v>593</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>529</v>
+        <v>594</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>530</v>
+        <v>595</v>
       </c>
       <c r="J67" t="s">
-        <v>531</v>
+        <v>596</v>
       </c>
       <c r="K67" t="s">
-        <v>532</v>
+        <v>597</v>
       </c>
       <c r="L67" t="s">
-        <v>533</v>
+        <v>598</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>534</v>
+        <v>599</v>
       </c>
       <c r="O67" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -7367,56 +7976,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>535</v>
+        <v>600</v>
       </c>
       <c r="X67" t="s">
-        <v>536</v>
+        <v>601</v>
       </c>
       <c r="Y67" t="s">
-        <v>537</v>
+        <v>602</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>10626</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>127295</v>
+      </c>
+      <c r="C68" t="s">
+        <v>603</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>538</v>
+        <v>604</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>539</v>
+        <v>605</v>
       </c>
       <c r="J68" t="s">
-        <v>540</v>
+        <v>606</v>
       </c>
       <c r="K68" t="s">
-        <v>541</v>
+        <v>607</v>
       </c>
       <c r="L68" t="s">
-        <v>542</v>
+        <v>608</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>543</v>
+        <v>609</v>
       </c>
       <c r="O68" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -7438,56 +8051,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>544</v>
+        <v>610</v>
       </c>
       <c r="X68" t="s">
-        <v>545</v>
+        <v>611</v>
       </c>
       <c r="Y68" t="s">
-        <v>546</v>
+        <v>612</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>10626</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>127296</v>
+      </c>
+      <c r="C69" t="s">
+        <v>613</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>547</v>
+        <v>614</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>548</v>
+        <v>615</v>
       </c>
       <c r="J69" t="s">
-        <v>549</v>
+        <v>616</v>
       </c>
       <c r="K69" t="s">
-        <v>550</v>
+        <v>617</v>
       </c>
       <c r="L69" t="s">
-        <v>551</v>
+        <v>618</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>543</v>
+        <v>609</v>
       </c>
       <c r="O69" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -7509,56 +8126,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>544</v>
+        <v>610</v>
       </c>
       <c r="X69" t="s">
-        <v>545</v>
+        <v>611</v>
       </c>
       <c r="Y69" t="s">
-        <v>552</v>
+        <v>619</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>10626</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>127277</v>
+      </c>
+      <c r="C70" t="s">
+        <v>377</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>553</v>
+        <v>620</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>554</v>
+        <v>621</v>
       </c>
       <c r="J70" t="s">
-        <v>555</v>
+        <v>622</v>
       </c>
       <c r="K70" t="s">
-        <v>556</v>
+        <v>623</v>
       </c>
       <c r="L70" t="s">
-        <v>557</v>
+        <v>624</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>543</v>
+        <v>609</v>
       </c>
       <c r="O70" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7580,56 +8201,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>558</v>
+        <v>625</v>
       </c>
       <c r="X70" t="s">
-        <v>559</v>
+        <v>626</v>
       </c>
       <c r="Y70" t="s">
-        <v>560</v>
+        <v>627</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>10626</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>508</v>
+      </c>
+      <c r="C71" t="s">
+        <v>628</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>561</v>
+        <v>629</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>562</v>
+        <v>630</v>
       </c>
       <c r="J71" t="s">
-        <v>563</v>
+        <v>631</v>
       </c>
       <c r="K71" t="s">
-        <v>564</v>
+        <v>632</v>
       </c>
       <c r="L71" t="s">
-        <v>565</v>
+        <v>633</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>543</v>
+        <v>609</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -7641,56 +8266,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>566</v>
+        <v>634</v>
       </c>
       <c r="X71" t="s">
-        <v>567</v>
+        <v>635</v>
       </c>
       <c r="Y71" t="s">
-        <v>568</v>
+        <v>636</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>10626</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>127297</v>
+      </c>
+      <c r="C72" t="s">
+        <v>637</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>569</v>
+        <v>638</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>570</v>
+        <v>639</v>
       </c>
       <c r="J72" t="s">
-        <v>571</v>
+        <v>640</v>
       </c>
       <c r="K72" t="s">
-        <v>572</v>
+        <v>641</v>
       </c>
       <c r="L72" t="s">
-        <v>573</v>
+        <v>642</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>574</v>
+        <v>643</v>
       </c>
       <c r="O72" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7712,56 +8341,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>575</v>
+        <v>644</v>
       </c>
       <c r="X72" t="s">
-        <v>576</v>
+        <v>645</v>
       </c>
       <c r="Y72" t="s">
-        <v>577</v>
+        <v>646</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>10626</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>127298</v>
+      </c>
+      <c r="C73" t="s">
+        <v>647</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>578</v>
+        <v>648</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>579</v>
+        <v>649</v>
       </c>
       <c r="J73" t="s">
-        <v>580</v>
+        <v>650</v>
       </c>
       <c r="K73" t="s">
-        <v>581</v>
+        <v>651</v>
       </c>
       <c r="L73" t="s">
-        <v>582</v>
+        <v>652</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>583</v>
+        <v>653</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7783,56 +8416,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>584</v>
+        <v>654</v>
       </c>
       <c r="X73" t="s">
-        <v>585</v>
+        <v>655</v>
       </c>
       <c r="Y73" t="s">
-        <v>586</v>
+        <v>656</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>10626</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>127299</v>
+      </c>
+      <c r="C74" t="s">
+        <v>657</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>587</v>
+        <v>658</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>588</v>
+        <v>659</v>
       </c>
       <c r="J74" t="s">
-        <v>589</v>
+        <v>660</v>
       </c>
       <c r="K74" t="s">
-        <v>590</v>
+        <v>661</v>
       </c>
       <c r="L74" t="s">
-        <v>591</v>
+        <v>662</v>
       </c>
       <c r="M74" t="n">
         <v>3</v>
       </c>
       <c r="N74" t="s">
-        <v>583</v>
+        <v>653</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>3</v>
@@ -7854,56 +8491,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>592</v>
+        <v>663</v>
       </c>
       <c r="X74" t="s">
-        <v>593</v>
+        <v>664</v>
       </c>
       <c r="Y74" t="s">
-        <v>594</v>
+        <v>665</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>10626</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>127300</v>
+      </c>
+      <c r="C75" t="s">
+        <v>666</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>595</v>
+        <v>667</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>596</v>
+        <v>668</v>
       </c>
       <c r="J75" t="s">
-        <v>597</v>
+        <v>669</v>
       </c>
       <c r="K75" t="s">
-        <v>598</v>
+        <v>670</v>
       </c>
       <c r="L75" t="s">
-        <v>599</v>
+        <v>671</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>583</v>
+        <v>653</v>
       </c>
       <c r="O75" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7925,56 +8566,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>600</v>
+        <v>672</v>
       </c>
       <c r="X75" t="s">
-        <v>601</v>
+        <v>673</v>
       </c>
       <c r="Y75" t="s">
-        <v>602</v>
+        <v>674</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>10626</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>127291</v>
+      </c>
+      <c r="C76" t="s">
+        <v>540</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>603</v>
+        <v>675</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>604</v>
+        <v>676</v>
       </c>
       <c r="J76" t="s">
-        <v>605</v>
+        <v>677</v>
       </c>
       <c r="K76" t="s">
-        <v>606</v>
+        <v>678</v>
       </c>
       <c r="L76" t="s">
-        <v>607</v>
+        <v>679</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>608</v>
+        <v>680</v>
       </c>
       <c r="O76" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="P76" t="s"/>
       <c r="Q76" t="s"/>
@@ -7988,50 +8633,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>607</v>
+        <v>679</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>10626</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>127301</v>
+      </c>
+      <c r="C77" t="s">
+        <v>681</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>609</v>
+        <v>682</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>610</v>
+        <v>683</v>
       </c>
       <c r="J77" t="s">
-        <v>611</v>
+        <v>684</v>
       </c>
       <c r="K77" t="s">
-        <v>612</v>
+        <v>685</v>
       </c>
       <c r="L77" t="s">
-        <v>613</v>
+        <v>686</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>614</v>
+        <v>687</v>
       </c>
       <c r="O77" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -8053,56 +8702,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>615</v>
+        <v>688</v>
       </c>
       <c r="X77" t="s">
-        <v>616</v>
+        <v>689</v>
       </c>
       <c r="Y77" t="s">
-        <v>617</v>
+        <v>690</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>10626</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>1826</v>
+      </c>
+      <c r="C78" t="s">
+        <v>691</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>618</v>
+        <v>692</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>619</v>
+        <v>693</v>
       </c>
       <c r="J78" t="s">
-        <v>620</v>
+        <v>694</v>
       </c>
       <c r="K78" t="s">
-        <v>621</v>
+        <v>695</v>
       </c>
       <c r="L78" t="s">
-        <v>622</v>
+        <v>696</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>623</v>
+        <v>697</v>
       </c>
       <c r="O78" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -8124,56 +8777,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>615</v>
+        <v>688</v>
       </c>
       <c r="X78" t="s">
-        <v>616</v>
+        <v>689</v>
       </c>
       <c r="Y78" t="s">
-        <v>624</v>
+        <v>698</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>10626</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>127302</v>
+      </c>
+      <c r="C79" t="s">
+        <v>699</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>626</v>
+        <v>701</v>
       </c>
       <c r="J79" t="s">
-        <v>627</v>
+        <v>702</v>
       </c>
       <c r="K79" t="s">
-        <v>628</v>
+        <v>703</v>
       </c>
       <c r="L79" t="s">
-        <v>629</v>
+        <v>704</v>
       </c>
       <c r="M79" t="n">
         <v>3</v>
       </c>
       <c r="N79" t="s">
-        <v>623</v>
+        <v>697</v>
       </c>
       <c r="O79" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -8195,56 +8852,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>615</v>
+        <v>688</v>
       </c>
       <c r="X79" t="s">
-        <v>616</v>
+        <v>689</v>
       </c>
       <c r="Y79" t="s">
-        <v>630</v>
+        <v>705</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>10626</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>127303</v>
+      </c>
+      <c r="C80" t="s">
+        <v>706</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>631</v>
+        <v>707</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>632</v>
+        <v>708</v>
       </c>
       <c r="J80" t="s">
-        <v>633</v>
+        <v>709</v>
       </c>
       <c r="K80" t="s">
-        <v>634</v>
+        <v>710</v>
       </c>
       <c r="L80" t="s">
-        <v>635</v>
+        <v>711</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>636</v>
+        <v>712</v>
       </c>
       <c r="O80" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -8266,56 +8927,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>637</v>
+        <v>713</v>
       </c>
       <c r="X80" t="s">
-        <v>638</v>
+        <v>714</v>
       </c>
       <c r="Y80" t="s">
-        <v>639</v>
+        <v>715</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>10626</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>127304</v>
+      </c>
+      <c r="C81" t="s">
+        <v>716</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>640</v>
+        <v>717</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>641</v>
+        <v>718</v>
       </c>
       <c r="J81" t="s">
-        <v>642</v>
+        <v>719</v>
       </c>
       <c r="K81" t="s">
-        <v>643</v>
+        <v>720</v>
       </c>
       <c r="L81" t="s">
-        <v>644</v>
+        <v>721</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>614</v>
+        <v>687</v>
       </c>
       <c r="O81" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -8337,56 +9002,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>637</v>
+        <v>713</v>
       </c>
       <c r="X81" t="s">
-        <v>638</v>
+        <v>714</v>
       </c>
       <c r="Y81" t="s">
-        <v>645</v>
+        <v>722</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>10626</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>127305</v>
+      </c>
+      <c r="C82" t="s">
+        <v>723</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>646</v>
+        <v>724</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>647</v>
+        <v>725</v>
       </c>
       <c r="J82" t="s">
-        <v>648</v>
+        <v>726</v>
       </c>
       <c r="K82" t="s">
-        <v>649</v>
+        <v>727</v>
       </c>
       <c r="L82" t="s">
-        <v>650</v>
+        <v>728</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>651</v>
+        <v>729</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="n">
         <v>4</v>
@@ -8408,56 +9077,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>652</v>
+        <v>730</v>
       </c>
       <c r="X82" t="s">
-        <v>653</v>
+        <v>731</v>
       </c>
       <c r="Y82" t="s">
-        <v>654</v>
+        <v>732</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>10626</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>127306</v>
+      </c>
+      <c r="C83" t="s">
+        <v>733</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>655</v>
+        <v>734</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>656</v>
+        <v>735</v>
       </c>
       <c r="J83" t="s">
-        <v>657</v>
+        <v>736</v>
       </c>
       <c r="K83" t="s">
-        <v>658</v>
+        <v>737</v>
       </c>
       <c r="L83" t="s">
-        <v>659</v>
+        <v>738</v>
       </c>
       <c r="M83" t="n">
         <v>3</v>
       </c>
       <c r="N83" t="s">
-        <v>660</v>
+        <v>739</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="n">
         <v>3</v>
@@ -8479,56 +9152,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>661</v>
+        <v>740</v>
       </c>
       <c r="X83" t="s">
-        <v>662</v>
+        <v>741</v>
       </c>
       <c r="Y83" t="s">
-        <v>663</v>
+        <v>742</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>10626</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>127307</v>
+      </c>
+      <c r="C84" t="s">
+        <v>743</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>664</v>
+        <v>744</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>665</v>
+        <v>745</v>
       </c>
       <c r="J84" t="s">
-        <v>666</v>
+        <v>746</v>
       </c>
       <c r="K84" t="s">
-        <v>667</v>
+        <v>747</v>
       </c>
       <c r="L84" t="s">
-        <v>668</v>
+        <v>748</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>669</v>
+        <v>749</v>
       </c>
       <c r="O84" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8550,56 +9227,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>670</v>
+        <v>750</v>
       </c>
       <c r="X84" t="s">
-        <v>671</v>
+        <v>751</v>
       </c>
       <c r="Y84" t="s">
-        <v>672</v>
+        <v>752</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>10626</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>127308</v>
+      </c>
+      <c r="C85" t="s">
+        <v>753</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>673</v>
+        <v>754</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>674</v>
+        <v>755</v>
       </c>
       <c r="J85" t="s">
-        <v>675</v>
+        <v>756</v>
       </c>
       <c r="K85" t="s">
-        <v>676</v>
+        <v>757</v>
       </c>
       <c r="L85" t="s">
-        <v>677</v>
+        <v>758</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>678</v>
+        <v>759</v>
       </c>
       <c r="O85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P85" t="n">
         <v>4</v>
@@ -8621,56 +9302,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>679</v>
+        <v>760</v>
       </c>
       <c r="X85" t="s">
-        <v>680</v>
+        <v>761</v>
       </c>
       <c r="Y85" t="s">
-        <v>681</v>
+        <v>762</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>10626</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>127309</v>
+      </c>
+      <c r="C86" t="s">
+        <v>763</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>682</v>
+        <v>764</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>683</v>
+        <v>765</v>
       </c>
       <c r="J86" t="s">
-        <v>684</v>
+        <v>766</v>
       </c>
       <c r="K86" t="s">
-        <v>685</v>
+        <v>767</v>
       </c>
       <c r="L86" t="s">
-        <v>686</v>
+        <v>768</v>
       </c>
       <c r="M86" t="n">
         <v>4</v>
       </c>
       <c r="N86" t="s">
-        <v>669</v>
+        <v>749</v>
       </c>
       <c r="O86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8692,47 +9377,51 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>661</v>
+        <v>740</v>
       </c>
       <c r="X86" t="s">
-        <v>662</v>
+        <v>741</v>
       </c>
       <c r="Y86" t="s">
-        <v>687</v>
+        <v>769</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>10626</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>127310</v>
+      </c>
+      <c r="C87" t="s">
+        <v>770</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>688</v>
+        <v>771</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>689</v>
+        <v>772</v>
       </c>
       <c r="J87" t="s">
-        <v>690</v>
+        <v>773</v>
       </c>
       <c r="K87" t="s">
-        <v>691</v>
+        <v>774</v>
       </c>
       <c r="L87" t="s">
-        <v>692</v>
+        <v>775</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
@@ -8761,50 +9450,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>692</v>
+        <v>775</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>10626</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>127311</v>
+      </c>
+      <c r="C88" t="s">
+        <v>776</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>693</v>
+        <v>777</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>694</v>
+        <v>778</v>
       </c>
       <c r="J88" t="s">
-        <v>695</v>
+        <v>779</v>
       </c>
       <c r="K88" t="s">
-        <v>696</v>
+        <v>780</v>
       </c>
       <c r="L88" t="s">
-        <v>697</v>
+        <v>781</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>698</v>
+        <v>782</v>
       </c>
       <c r="O88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P88" t="n">
         <v>4</v>
@@ -8828,50 +9521,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>699</v>
+        <v>783</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>10626</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>7548</v>
+      </c>
+      <c r="C89" t="s">
+        <v>784</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>700</v>
+        <v>785</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>701</v>
+        <v>786</v>
       </c>
       <c r="J89" t="s">
-        <v>702</v>
+        <v>787</v>
       </c>
       <c r="K89" t="s">
-        <v>703</v>
+        <v>788</v>
       </c>
       <c r="L89" t="s">
-        <v>704</v>
+        <v>789</v>
       </c>
       <c r="M89" t="n">
         <v>3</v>
       </c>
       <c r="N89" t="s">
-        <v>705</v>
+        <v>790</v>
       </c>
       <c r="O89" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P89" t="s"/>
       <c r="Q89" t="s"/>
@@ -8885,50 +9582,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>704</v>
+        <v>789</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>10626</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>127312</v>
+      </c>
+      <c r="C90" t="s">
+        <v>791</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>706</v>
+        <v>792</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>707</v>
+        <v>793</v>
       </c>
       <c r="J90" t="s">
-        <v>708</v>
+        <v>794</v>
       </c>
       <c r="K90" t="s">
-        <v>709</v>
+        <v>795</v>
       </c>
       <c r="L90" t="s">
-        <v>710</v>
+        <v>796</v>
       </c>
       <c r="M90" t="n">
         <v>3</v>
       </c>
       <c r="N90" t="s">
-        <v>705</v>
+        <v>790</v>
       </c>
       <c r="O90" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -8952,50 +9653,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>710</v>
+        <v>796</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>10626</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>127313</v>
+      </c>
+      <c r="C91" t="s">
+        <v>797</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>711</v>
+        <v>798</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>712</v>
+        <v>799</v>
       </c>
       <c r="J91" t="s">
-        <v>713</v>
+        <v>800</v>
       </c>
       <c r="K91" t="s">
-        <v>714</v>
+        <v>801</v>
       </c>
       <c r="L91" t="s">
-        <v>715</v>
+        <v>802</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
       </c>
       <c r="N91" t="s">
-        <v>705</v>
+        <v>790</v>
       </c>
       <c r="O91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -9019,50 +9724,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>715</v>
+        <v>802</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>10626</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>127314</v>
+      </c>
+      <c r="C92" t="s">
+        <v>803</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>716</v>
+        <v>804</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>717</v>
+        <v>805</v>
       </c>
       <c r="J92" t="s">
-        <v>718</v>
+        <v>806</v>
       </c>
       <c r="K92" t="s">
-        <v>719</v>
+        <v>807</v>
       </c>
       <c r="L92" t="s">
-        <v>720</v>
+        <v>808</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>721</v>
+        <v>809</v>
       </c>
       <c r="O92" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -9086,50 +9795,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>722</v>
+        <v>810</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>10626</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>127315</v>
+      </c>
+      <c r="C93" t="s">
+        <v>811</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>723</v>
+        <v>812</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>724</v>
+        <v>813</v>
       </c>
       <c r="J93" t="s">
-        <v>725</v>
+        <v>814</v>
       </c>
       <c r="K93" t="s">
-        <v>726</v>
+        <v>815</v>
       </c>
       <c r="L93" t="s">
-        <v>727</v>
+        <v>816</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>728</v>
+        <v>817</v>
       </c>
       <c r="O93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -9153,50 +9866,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>729</v>
+        <v>818</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>10626</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>127316</v>
+      </c>
+      <c r="C94" t="s">
+        <v>819</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>730</v>
+        <v>820</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>731</v>
+        <v>821</v>
       </c>
       <c r="J94" t="s">
-        <v>732</v>
+        <v>822</v>
       </c>
       <c r="K94" t="s">
-        <v>733</v>
+        <v>823</v>
       </c>
       <c r="L94" t="s">
-        <v>734</v>
+        <v>824</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>728</v>
+        <v>817</v>
       </c>
       <c r="O94" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -9220,50 +9937,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>734</v>
+        <v>824</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>10626</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>127317</v>
+      </c>
+      <c r="C95" t="s">
+        <v>825</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>735</v>
+        <v>826</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>736</v>
+        <v>827</v>
       </c>
       <c r="J95" t="s">
-        <v>737</v>
+        <v>828</v>
       </c>
       <c r="K95" t="s">
-        <v>738</v>
+        <v>829</v>
       </c>
       <c r="L95" t="s">
-        <v>739</v>
+        <v>830</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>740</v>
+        <v>831</v>
       </c>
       <c r="O95" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -9287,50 +10008,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>741</v>
+        <v>832</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>10626</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>127318</v>
+      </c>
+      <c r="C96" t="s">
+        <v>833</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>742</v>
+        <v>834</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>743</v>
+        <v>835</v>
       </c>
       <c r="J96" t="s">
-        <v>744</v>
+        <v>836</v>
       </c>
       <c r="K96" t="s">
-        <v>745</v>
+        <v>837</v>
       </c>
       <c r="L96" t="s">
-        <v>746</v>
+        <v>838</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>740</v>
+        <v>831</v>
       </c>
       <c r="O96" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -9354,50 +10079,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>747</v>
+        <v>839</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>10626</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>127319</v>
+      </c>
+      <c r="C97" t="s">
+        <v>840</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>748</v>
+        <v>841</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>749</v>
+        <v>842</v>
       </c>
       <c r="J97" t="s">
-        <v>750</v>
+        <v>843</v>
       </c>
       <c r="K97" t="s">
-        <v>751</v>
+        <v>844</v>
       </c>
       <c r="L97" t="s">
-        <v>752</v>
+        <v>845</v>
       </c>
       <c r="M97" t="n">
         <v>4</v>
       </c>
       <c r="N97" t="s">
-        <v>753</v>
+        <v>846</v>
       </c>
       <c r="O97" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9421,50 +10150,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>754</v>
+        <v>847</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>10626</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>127320</v>
+      </c>
+      <c r="C98" t="s">
+        <v>848</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>755</v>
+        <v>849</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>756</v>
+        <v>850</v>
       </c>
       <c r="J98" t="s">
-        <v>757</v>
+        <v>851</v>
       </c>
       <c r="K98" t="s">
-        <v>758</v>
+        <v>852</v>
       </c>
       <c r="L98" t="s">
-        <v>759</v>
+        <v>853</v>
       </c>
       <c r="M98" t="n">
         <v>4</v>
       </c>
       <c r="N98" t="s">
-        <v>753</v>
+        <v>846</v>
       </c>
       <c r="O98" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -9488,50 +10221,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>759</v>
+        <v>853</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>10626</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>127321</v>
+      </c>
+      <c r="C99" t="s">
+        <v>854</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>760</v>
+        <v>855</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>761</v>
+        <v>856</v>
       </c>
       <c r="J99" t="s">
-        <v>762</v>
+        <v>857</v>
       </c>
       <c r="K99" t="s">
-        <v>763</v>
+        <v>858</v>
       </c>
       <c r="L99" t="s">
-        <v>764</v>
+        <v>859</v>
       </c>
       <c r="M99" t="n">
         <v>4</v>
       </c>
       <c r="N99" t="s">
-        <v>753</v>
+        <v>846</v>
       </c>
       <c r="O99" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="P99" t="n">
         <v>4</v>
@@ -9555,50 +10292,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>765</v>
+        <v>860</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>10626</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>127322</v>
+      </c>
+      <c r="C100" t="s">
+        <v>861</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>766</v>
+        <v>862</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>767</v>
+        <v>863</v>
       </c>
       <c r="J100" t="s">
-        <v>768</v>
+        <v>864</v>
       </c>
       <c r="K100" t="s">
-        <v>769</v>
+        <v>865</v>
       </c>
       <c r="L100" t="s">
-        <v>770</v>
+        <v>866</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>771</v>
+        <v>867</v>
       </c>
       <c r="O100" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -9622,50 +10363,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>770</v>
+        <v>866</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>10626</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>20622</v>
+      </c>
+      <c r="C101" t="s">
+        <v>868</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>772</v>
+        <v>869</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>773</v>
+        <v>870</v>
       </c>
       <c r="J101" t="s">
-        <v>774</v>
+        <v>871</v>
       </c>
       <c r="K101" t="s">
-        <v>775</v>
+        <v>872</v>
       </c>
       <c r="L101" t="s">
-        <v>776</v>
+        <v>873</v>
       </c>
       <c r="M101" t="n">
         <v>4</v>
       </c>
       <c r="N101" t="s">
-        <v>777</v>
+        <v>874</v>
       </c>
       <c r="O101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -9689,50 +10434,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>776</v>
+        <v>873</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>10626</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>127323</v>
+      </c>
+      <c r="C102" t="s">
+        <v>875</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>778</v>
+        <v>876</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>779</v>
+        <v>877</v>
       </c>
       <c r="J102" t="s">
-        <v>780</v>
+        <v>878</v>
       </c>
       <c r="K102" t="s">
-        <v>781</v>
+        <v>879</v>
       </c>
       <c r="L102" t="s">
-        <v>782</v>
+        <v>880</v>
       </c>
       <c r="M102" t="n">
         <v>3</v>
       </c>
       <c r="N102" t="s">
-        <v>783</v>
+        <v>881</v>
       </c>
       <c r="O102" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P102" t="n">
         <v>4</v>
@@ -9756,41 +10505,45 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>784</v>
+        <v>882</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>10626</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>127324</v>
+      </c>
+      <c r="C103" t="s">
+        <v>883</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>785</v>
+        <v>884</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>786</v>
+        <v>885</v>
       </c>
       <c r="J103" t="s">
-        <v>787</v>
+        <v>886</v>
       </c>
       <c r="K103" t="s">
-        <v>788</v>
+        <v>887</v>
       </c>
       <c r="L103" t="s">
-        <v>789</v>
+        <v>888</v>
       </c>
       <c r="M103" t="n">
         <v>4</v>
@@ -9819,50 +10572,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>790</v>
+        <v>889</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>10626</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>127325</v>
+      </c>
+      <c r="C104" t="s">
+        <v>890</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>791</v>
+        <v>891</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>792</v>
+        <v>892</v>
       </c>
       <c r="J104" t="s">
-        <v>793</v>
+        <v>893</v>
       </c>
       <c r="K104" t="s">
-        <v>794</v>
+        <v>894</v>
       </c>
       <c r="L104" t="s">
-        <v>795</v>
+        <v>895</v>
       </c>
       <c r="M104" t="n">
         <v>4</v>
       </c>
       <c r="N104" t="s">
-        <v>796</v>
+        <v>896</v>
       </c>
       <c r="O104" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P104" t="n">
         <v>5</v>
@@ -9886,41 +10643,45 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>795</v>
+        <v>895</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>10626</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>21761</v>
+      </c>
+      <c r="C105" t="s">
+        <v>897</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>797</v>
+        <v>898</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>798</v>
+        <v>899</v>
       </c>
       <c r="J105" t="s">
-        <v>799</v>
+        <v>900</v>
       </c>
       <c r="K105" t="s">
-        <v>800</v>
+        <v>901</v>
       </c>
       <c r="L105" t="s">
-        <v>801</v>
+        <v>902</v>
       </c>
       <c r="M105" t="n">
         <v>5</v>
@@ -9949,50 +10710,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>801</v>
+        <v>902</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>10626</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>74568</v>
+      </c>
+      <c r="C106" t="s">
+        <v>903</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>802</v>
+        <v>904</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>803</v>
+        <v>905</v>
       </c>
       <c r="J106" t="s">
-        <v>804</v>
+        <v>906</v>
       </c>
       <c r="K106" t="s">
-        <v>805</v>
+        <v>907</v>
       </c>
       <c r="L106" t="s">
-        <v>806</v>
+        <v>908</v>
       </c>
       <c r="M106" t="n">
         <v>4</v>
       </c>
       <c r="N106" t="s">
-        <v>807</v>
+        <v>909</v>
       </c>
       <c r="O106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P106" t="n">
         <v>4</v>
@@ -10016,50 +10781,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>808</v>
+        <v>910</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>10626</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>33767</v>
+      </c>
+      <c r="C107" t="s">
+        <v>911</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>809</v>
+        <v>912</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>810</v>
+        <v>913</v>
       </c>
       <c r="J107" t="s">
-        <v>811</v>
+        <v>914</v>
       </c>
       <c r="K107" t="s">
-        <v>812</v>
+        <v>915</v>
       </c>
       <c r="L107" t="s">
-        <v>813</v>
+        <v>916</v>
       </c>
       <c r="M107" t="n">
         <v>3</v>
       </c>
       <c r="N107" t="s">
-        <v>814</v>
+        <v>917</v>
       </c>
       <c r="O107" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P107" t="n">
         <v>3</v>
@@ -10083,50 +10852,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>815</v>
+        <v>918</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>10626</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>127326</v>
+      </c>
+      <c r="C108" t="s">
+        <v>919</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>816</v>
+        <v>920</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>817</v>
+        <v>921</v>
       </c>
       <c r="J108" t="s">
-        <v>818</v>
+        <v>922</v>
       </c>
       <c r="K108" t="s">
-        <v>819</v>
+        <v>923</v>
       </c>
       <c r="L108" t="s">
-        <v>820</v>
+        <v>924</v>
       </c>
       <c r="M108" t="n">
         <v>5</v>
       </c>
       <c r="N108" t="s">
-        <v>821</v>
+        <v>925</v>
       </c>
       <c r="O108" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P108" t="n">
         <v>5</v>
@@ -10148,50 +10921,54 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>822</v>
+        <v>926</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>10626</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>39845</v>
+      </c>
+      <c r="C109" t="s">
+        <v>927</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>823</v>
+        <v>928</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>824</v>
+        <v>929</v>
       </c>
       <c r="J109" t="s">
-        <v>825</v>
+        <v>930</v>
       </c>
       <c r="K109" t="s">
-        <v>826</v>
+        <v>931</v>
       </c>
       <c r="L109" t="s">
-        <v>827</v>
+        <v>932</v>
       </c>
       <c r="M109" t="n">
         <v>3</v>
       </c>
       <c r="N109" t="s">
-        <v>828</v>
+        <v>933</v>
       </c>
       <c r="O109" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P109" t="n">
         <v>4</v>
@@ -10211,50 +10988,54 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>827</v>
+        <v>932</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>10626</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>40814</v>
+      </c>
+      <c r="C110" t="s">
+        <v>934</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>829</v>
+        <v>935</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>830</v>
+        <v>936</v>
       </c>
       <c r="J110" t="s">
-        <v>831</v>
+        <v>937</v>
       </c>
       <c r="K110" t="s">
-        <v>832</v>
+        <v>938</v>
       </c>
       <c r="L110" t="s">
-        <v>833</v>
+        <v>939</v>
       </c>
       <c r="M110" t="n">
         <v>2</v>
       </c>
       <c r="N110" t="s">
-        <v>821</v>
+        <v>925</v>
       </c>
       <c r="O110" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P110" t="n">
         <v>1</v>
@@ -10274,50 +11055,54 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>834</v>
+        <v>940</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>10626</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>127327</v>
+      </c>
+      <c r="C111" t="s">
+        <v>941</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>835</v>
+        <v>942</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>836</v>
+        <v>943</v>
       </c>
       <c r="J111" t="s">
-        <v>837</v>
+        <v>944</v>
       </c>
       <c r="K111" t="s">
-        <v>838</v>
+        <v>945</v>
       </c>
       <c r="L111" t="s">
-        <v>839</v>
+        <v>946</v>
       </c>
       <c r="M111" t="n">
         <v>4</v>
       </c>
       <c r="N111" t="s">
-        <v>821</v>
+        <v>925</v>
       </c>
       <c r="O111" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P111" t="n">
         <v>5</v>
@@ -10337,50 +11122,54 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>839</v>
+        <v>946</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>10626</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>127328</v>
+      </c>
+      <c r="C112" t="s">
+        <v>947</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>840</v>
+        <v>948</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>841</v>
+        <v>949</v>
       </c>
       <c r="J112" t="s">
-        <v>842</v>
+        <v>950</v>
       </c>
       <c r="K112" t="s">
-        <v>843</v>
+        <v>951</v>
       </c>
       <c r="L112" t="s">
-        <v>844</v>
+        <v>952</v>
       </c>
       <c r="M112" t="n">
         <v>5</v>
       </c>
       <c r="N112" t="s">
-        <v>845</v>
+        <v>953</v>
       </c>
       <c r="O112" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="P112" t="n">
         <v>5</v>
@@ -10404,50 +11193,54 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>844</v>
+        <v>952</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>10626</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>127329</v>
+      </c>
+      <c r="C113" t="s">
+        <v>954</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>846</v>
+        <v>955</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>847</v>
+        <v>956</v>
       </c>
       <c r="J113" t="s">
-        <v>848</v>
+        <v>957</v>
       </c>
       <c r="K113" t="s">
-        <v>849</v>
+        <v>958</v>
       </c>
       <c r="L113" t="s">
-        <v>850</v>
+        <v>959</v>
       </c>
       <c r="M113" t="n">
         <v>5</v>
       </c>
       <c r="N113" t="s">
-        <v>851</v>
+        <v>960</v>
       </c>
       <c r="O113" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P113" t="n">
         <v>4</v>
@@ -10471,50 +11264,54 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>850</v>
+        <v>959</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>10626</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>127330</v>
+      </c>
+      <c r="C114" t="s">
+        <v>961</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>852</v>
+        <v>962</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>853</v>
+        <v>963</v>
       </c>
       <c r="J114" t="s">
-        <v>854</v>
+        <v>964</v>
       </c>
       <c r="K114" t="s">
-        <v>855</v>
+        <v>965</v>
       </c>
       <c r="L114" t="s">
-        <v>856</v>
+        <v>966</v>
       </c>
       <c r="M114" t="n">
         <v>5</v>
       </c>
       <c r="N114" t="s">
-        <v>857</v>
+        <v>967</v>
       </c>
       <c r="O114" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P114" t="n">
         <v>5</v>
@@ -10538,50 +11335,54 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>856</v>
+        <v>966</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>10626</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>127331</v>
+      </c>
+      <c r="C115" t="s">
+        <v>968</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>858</v>
+        <v>969</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>859</v>
+        <v>970</v>
       </c>
       <c r="J115" t="s">
-        <v>860</v>
+        <v>971</v>
       </c>
       <c r="K115" t="s">
-        <v>861</v>
+        <v>972</v>
       </c>
       <c r="L115" t="s">
-        <v>862</v>
+        <v>973</v>
       </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
       <c r="N115" t="s">
-        <v>863</v>
+        <v>974</v>
       </c>
       <c r="O115" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P115" t="n">
         <v>1</v>
@@ -10603,50 +11404,54 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>862</v>
+        <v>973</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>10626</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>127332</v>
+      </c>
+      <c r="C116" t="s">
+        <v>975</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>864</v>
+        <v>976</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I116" t="s">
-        <v>865</v>
+        <v>977</v>
       </c>
       <c r="J116" t="s">
-        <v>866</v>
+        <v>978</v>
       </c>
       <c r="K116" t="s">
-        <v>867</v>
+        <v>979</v>
       </c>
       <c r="L116" t="s">
-        <v>868</v>
+        <v>980</v>
       </c>
       <c r="M116" t="n">
         <v>4</v>
       </c>
       <c r="N116" t="s">
-        <v>869</v>
+        <v>981</v>
       </c>
       <c r="O116" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="P116" t="n">
         <v>5</v>
@@ -10670,50 +11475,54 @@
       <c r="W116" t="s"/>
       <c r="X116" t="s"/>
       <c r="Y116" t="s">
-        <v>870</v>
+        <v>982</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>10626</v>
       </c>
-      <c r="B117" t="s"/>
-      <c r="C117" t="s"/>
+      <c r="B117" t="n">
+        <v>127333</v>
+      </c>
+      <c r="C117" t="s">
+        <v>983</v>
+      </c>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>871</v>
+        <v>984</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I117" t="s">
-        <v>872</v>
+        <v>985</v>
       </c>
       <c r="J117" t="s">
-        <v>873</v>
+        <v>986</v>
       </c>
       <c r="K117" t="s">
-        <v>874</v>
+        <v>987</v>
       </c>
       <c r="L117" t="s">
-        <v>875</v>
+        <v>988</v>
       </c>
       <c r="M117" t="n">
         <v>5</v>
       </c>
       <c r="N117" t="s">
-        <v>876</v>
+        <v>989</v>
       </c>
       <c r="O117" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="P117" t="n">
         <v>5</v>
@@ -10737,50 +11546,54 @@
       <c r="W117" t="s"/>
       <c r="X117" t="s"/>
       <c r="Y117" t="s">
-        <v>875</v>
+        <v>988</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>10626</v>
       </c>
-      <c r="B118" t="s"/>
-      <c r="C118" t="s"/>
+      <c r="B118" t="n">
+        <v>127334</v>
+      </c>
+      <c r="C118" t="s">
+        <v>990</v>
+      </c>
       <c r="D118" t="n">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>877</v>
+        <v>991</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I118" t="s">
-        <v>878</v>
+        <v>992</v>
       </c>
       <c r="J118" t="s">
-        <v>879</v>
+        <v>993</v>
       </c>
       <c r="K118" t="s">
-        <v>880</v>
+        <v>994</v>
       </c>
       <c r="L118" t="s">
-        <v>881</v>
+        <v>995</v>
       </c>
       <c r="M118" t="n">
         <v>5</v>
       </c>
       <c r="N118" t="s">
-        <v>882</v>
+        <v>996</v>
       </c>
       <c r="O118" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="P118" t="n">
         <v>5</v>
@@ -10804,50 +11617,54 @@
       <c r="W118" t="s"/>
       <c r="X118" t="s"/>
       <c r="Y118" t="s">
-        <v>883</v>
+        <v>997</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>10626</v>
       </c>
-      <c r="B119" t="s"/>
-      <c r="C119" t="s"/>
+      <c r="B119" t="n">
+        <v>41546</v>
+      </c>
+      <c r="C119" t="s">
+        <v>998</v>
+      </c>
       <c r="D119" t="n">
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>884</v>
+        <v>999</v>
       </c>
       <c r="G119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I119" t="s">
-        <v>885</v>
+        <v>1000</v>
       </c>
       <c r="J119" t="s">
-        <v>886</v>
+        <v>1001</v>
       </c>
       <c r="K119" t="s">
-        <v>887</v>
+        <v>1002</v>
       </c>
       <c r="L119" t="s">
-        <v>888</v>
+        <v>1003</v>
       </c>
       <c r="M119" t="n">
         <v>5</v>
       </c>
       <c r="N119" t="s">
-        <v>889</v>
+        <v>1004</v>
       </c>
       <c r="O119" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P119" t="n">
         <v>5</v>
@@ -10869,7 +11686,7 @@
       <c r="W119" t="s"/>
       <c r="X119" t="s"/>
       <c r="Y119" t="s">
-        <v>888</v>
+        <v>1003</v>
       </c>
     </row>
   </sheetData>
